--- a/data/raw/election/voters-age-sex-education/2023/Aydın.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Aydın.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:26:47-16846184891" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="46">
   <si>
     <t>Aydın</t>
   </si>
@@ -152,6 +151,12 @@
   </si>
   <si>
     <t>Yenipazar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -685,7 +690,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -699,16 +704,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1033,10 +1047,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N446"/>
+  <dimension ref="A1:N448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:B448"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,24 +1066,24 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1170,7 +1184,7 @@
         <v>10</v>
       </c>
       <c r="M6" s="5">
-        <v>1.5009999999999999</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1209,7 +1223,7 @@
         <v>3</v>
       </c>
       <c r="M7" s="5">
-        <v>1.3120000000000001</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1249,7 +1263,7 @@
       <c r="L8" s="4">
         <v>1</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>934</v>
       </c>
     </row>
@@ -1288,7 +1302,7 @@
       <c r="L9" s="4">
         <v>4</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>844</v>
       </c>
     </row>
@@ -1329,7 +1343,7 @@
       <c r="L10" s="4">
         <v>3</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>854</v>
       </c>
     </row>
@@ -1368,7 +1382,7 @@
       <c r="L11" s="4">
         <v>4</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>790</v>
       </c>
     </row>
@@ -1410,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="M12" s="5">
-        <v>1.0109999999999999</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1448,7 +1462,7 @@
       <c r="L13" s="4">
         <v>5</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>974</v>
       </c>
     </row>
@@ -1490,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="M14" s="5">
-        <v>1.0860000000000001</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1528,7 +1542,7 @@
       <c r="L15" s="4">
         <v>5</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>977</v>
       </c>
     </row>
@@ -1570,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="M16" s="5">
-        <v>1.095</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1609,7 +1623,7 @@
         <v>6</v>
       </c>
       <c r="M17" s="5">
-        <v>1.01</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1650,7 +1664,7 @@
         <v>5</v>
       </c>
       <c r="M18" s="5">
-        <v>1.155</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1689,7 +1703,7 @@
         <v>2</v>
       </c>
       <c r="M19" s="5">
-        <v>1.07</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1730,7 +1744,7 @@
         <v>7</v>
       </c>
       <c r="M20" s="5">
-        <v>1.141</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1769,7 +1783,7 @@
         <v>13</v>
       </c>
       <c r="M21" s="5">
-        <v>1.1160000000000001</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1810,7 +1824,7 @@
         <v>8</v>
       </c>
       <c r="M22" s="5">
-        <v>1.155</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1849,7 +1863,7 @@
         <v>9</v>
       </c>
       <c r="M23" s="5">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1890,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="M24" s="5">
-        <v>1.0589999999999999</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1929,7 +1943,7 @@
         <v>6</v>
       </c>
       <c r="M25" s="5">
-        <v>1.0960000000000001</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1969,7 +1983,7 @@
       <c r="L26" s="4">
         <v>7</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="6">
         <v>709</v>
       </c>
     </row>
@@ -2008,7 +2022,7 @@
       <c r="L27" s="4">
         <v>6</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="6">
         <v>831</v>
       </c>
     </row>
@@ -2050,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="M28" s="5">
-        <v>1.0509999999999999</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2089,46 +2103,46 @@
         <v>7</v>
       </c>
       <c r="M29" s="5">
-        <v>1.655</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
         <v>878</v>
       </c>
       <c r="D30" s="5">
-        <v>1.43</v>
+        <v>1430</v>
       </c>
       <c r="E30" s="5">
-        <v>10.576000000000001</v>
+        <v>10576</v>
       </c>
       <c r="F30" s="5">
-        <v>2.3279999999999998</v>
+        <v>2328</v>
       </c>
       <c r="G30" s="5">
-        <v>3.254</v>
+        <v>3254</v>
       </c>
       <c r="H30" s="5">
-        <v>4.53</v>
+        <v>4530</v>
       </c>
       <c r="I30" s="5">
-        <v>2.3239999999999998</v>
-      </c>
-      <c r="J30" s="5">
+        <v>2324</v>
+      </c>
+      <c r="J30" s="6">
         <v>160</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <v>18</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="6">
         <v>128</v>
       </c>
       <c r="M30" s="5">
-        <v>25.626000000000001</v>
+        <v>25626</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2207,7 +2221,7 @@
       <c r="L32" s="4">
         <v>9</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="6">
         <v>599</v>
       </c>
     </row>
@@ -2246,7 +2260,7 @@
       <c r="L33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="6">
         <v>610</v>
       </c>
     </row>
@@ -2287,7 +2301,7 @@
       <c r="L34" s="4">
         <v>2</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="6">
         <v>464</v>
       </c>
     </row>
@@ -2326,7 +2340,7 @@
       <c r="L35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="6">
         <v>411</v>
       </c>
     </row>
@@ -2367,7 +2381,7 @@
       <c r="L36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="6">
         <v>443</v>
       </c>
     </row>
@@ -2406,7 +2420,7 @@
       <c r="L37" s="4">
         <v>4</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="6">
         <v>394</v>
       </c>
     </row>
@@ -2447,7 +2461,7 @@
       <c r="L38" s="4">
         <v>6</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="6">
         <v>475</v>
       </c>
     </row>
@@ -2486,7 +2500,7 @@
       <c r="L39" s="4">
         <v>3</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="6">
         <v>440</v>
       </c>
     </row>
@@ -2527,7 +2541,7 @@
       <c r="L40" s="4">
         <v>2</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="6">
         <v>488</v>
       </c>
     </row>
@@ -2566,7 +2580,7 @@
       <c r="L41" s="4">
         <v>1</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="6">
         <v>448</v>
       </c>
     </row>
@@ -2607,7 +2621,7 @@
       <c r="L42" s="4">
         <v>2</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="6">
         <v>427</v>
       </c>
     </row>
@@ -2646,7 +2660,7 @@
       <c r="L43" s="4">
         <v>2</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="6">
         <v>415</v>
       </c>
     </row>
@@ -2687,7 +2701,7 @@
       <c r="L44" s="4">
         <v>8</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="6">
         <v>431</v>
       </c>
     </row>
@@ -2726,7 +2740,7 @@
       <c r="L45" s="4">
         <v>4</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="6">
         <v>421</v>
       </c>
     </row>
@@ -2767,7 +2781,7 @@
       <c r="L46" s="4">
         <v>4</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="6">
         <v>414</v>
       </c>
     </row>
@@ -2806,7 +2820,7 @@
       <c r="L47" s="4">
         <v>4</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="6">
         <v>432</v>
       </c>
     </row>
@@ -2847,7 +2861,7 @@
       <c r="L48" s="4">
         <v>7</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="6">
         <v>411</v>
       </c>
     </row>
@@ -2886,7 +2900,7 @@
       <c r="L49" s="4">
         <v>9</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="6">
         <v>427</v>
       </c>
     </row>
@@ -2927,7 +2941,7 @@
       <c r="L50" s="4">
         <v>4</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="6">
         <v>305</v>
       </c>
     </row>
@@ -2966,7 +2980,7 @@
       <c r="L51" s="4">
         <v>4</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="6">
         <v>311</v>
       </c>
     </row>
@@ -3007,7 +3021,7 @@
       <c r="L52" s="4">
         <v>4</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="6">
         <v>221</v>
       </c>
     </row>
@@ -3046,7 +3060,7 @@
       <c r="L53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="6">
         <v>275</v>
       </c>
     </row>
@@ -3087,7 +3101,7 @@
       <c r="L54" s="4">
         <v>4</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="6">
         <v>268</v>
       </c>
     </row>
@@ -3126,7 +3140,7 @@
       <c r="L55" s="4">
         <v>5</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="6">
         <v>487</v>
       </c>
     </row>
@@ -3134,39 +3148,39 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="6">
         <v>161</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="6">
         <v>514</v>
       </c>
       <c r="E56" s="5">
-        <v>3.27</v>
-      </c>
-      <c r="F56" s="5">
+        <v>3270</v>
+      </c>
+      <c r="F56" s="6">
         <v>996</v>
       </c>
       <c r="G56" s="5">
-        <v>1.4279999999999999</v>
+        <v>1428</v>
       </c>
       <c r="H56" s="5">
-        <v>2.4060000000000001</v>
+        <v>2406</v>
       </c>
       <c r="I56" s="5">
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="J56" s="5">
+        <v>1076</v>
+      </c>
+      <c r="J56" s="6">
         <v>70</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="6">
         <v>8</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="6">
         <v>88</v>
       </c>
       <c r="M56" s="5">
-        <v>10.016999999999999</v>
+        <v>10017</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3230,8 +3244,8 @@
       <c r="G58" s="4">
         <v>470</v>
       </c>
-      <c r="H58" s="4">
-        <v>1.3360000000000001</v>
+      <c r="H58" s="9">
+        <v>1336</v>
       </c>
       <c r="I58" s="4">
         <v>278</v>
@@ -3246,7 +3260,7 @@
         <v>25</v>
       </c>
       <c r="M58" s="5">
-        <v>2.113</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3269,8 +3283,8 @@
       <c r="G59" s="4">
         <v>315</v>
       </c>
-      <c r="H59" s="4">
-        <v>1.236</v>
+      <c r="H59" s="9">
+        <v>1236</v>
       </c>
       <c r="I59" s="4">
         <v>437</v>
@@ -3285,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="M59" s="5">
-        <v>1.996</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3326,7 +3340,7 @@
         <v>2</v>
       </c>
       <c r="M60" s="5">
-        <v>1.417</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3365,7 +3379,7 @@
         <v>3</v>
       </c>
       <c r="M61" s="5">
-        <v>1.341</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3406,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="M62" s="5">
-        <v>1.321</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3445,7 +3459,7 @@
         <v>5</v>
       </c>
       <c r="M63" s="5">
-        <v>1.325</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3486,7 +3500,7 @@
         <v>2</v>
       </c>
       <c r="M64" s="5">
-        <v>1.4910000000000001</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3525,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="M65" s="5">
-        <v>1.454</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3566,7 +3580,7 @@
         <v>6</v>
       </c>
       <c r="M66" s="5">
-        <v>1.675</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3605,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="M67" s="5">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3646,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="M68" s="5">
-        <v>1.7130000000000001</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3685,7 +3699,7 @@
         <v>11</v>
       </c>
       <c r="M69" s="5">
-        <v>1.6539999999999999</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3726,7 +3740,7 @@
         <v>5</v>
       </c>
       <c r="M70" s="5">
-        <v>1.8120000000000001</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3740,8 +3754,8 @@
       <c r="D71" s="4">
         <v>19</v>
       </c>
-      <c r="E71" s="4">
-        <v>1.099</v>
+      <c r="E71" s="9">
+        <v>1099</v>
       </c>
       <c r="F71" s="4">
         <v>198</v>
@@ -3765,7 +3779,7 @@
         <v>7</v>
       </c>
       <c r="M71" s="5">
-        <v>1.758</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3806,7 +3820,7 @@
         <v>2</v>
       </c>
       <c r="M72" s="5">
-        <v>1.929</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3820,8 +3834,8 @@
       <c r="D73" s="4">
         <v>56</v>
       </c>
-      <c r="E73" s="4">
-        <v>1.3620000000000001</v>
+      <c r="E73" s="9">
+        <v>1362</v>
       </c>
       <c r="F73" s="4">
         <v>124</v>
@@ -3845,7 +3859,7 @@
         <v>4</v>
       </c>
       <c r="M73" s="5">
-        <v>1.821</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3861,8 +3875,8 @@
       <c r="D74" s="4">
         <v>15</v>
       </c>
-      <c r="E74" s="4">
-        <v>1.1259999999999999</v>
+      <c r="E74" s="9">
+        <v>1126</v>
       </c>
       <c r="F74" s="4">
         <v>160</v>
@@ -3886,7 +3900,7 @@
         <v>6</v>
       </c>
       <c r="M74" s="5">
-        <v>1.78</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3900,8 +3914,8 @@
       <c r="D75" s="4">
         <v>142</v>
       </c>
-      <c r="E75" s="4">
-        <v>1.454</v>
+      <c r="E75" s="9">
+        <v>1454</v>
       </c>
       <c r="F75" s="4">
         <v>52</v>
@@ -3925,7 +3939,7 @@
         <v>2</v>
       </c>
       <c r="M75" s="5">
-        <v>1.8779999999999999</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3941,8 +3955,8 @@
       <c r="D76" s="4">
         <v>34</v>
       </c>
-      <c r="E76" s="4">
-        <v>1.1739999999999999</v>
+      <c r="E76" s="9">
+        <v>1174</v>
       </c>
       <c r="F76" s="4">
         <v>88</v>
@@ -3966,7 +3980,7 @@
         <v>4</v>
       </c>
       <c r="M76" s="5">
-        <v>1.6220000000000001</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3980,8 +3994,8 @@
       <c r="D77" s="4">
         <v>275</v>
       </c>
-      <c r="E77" s="4">
-        <v>1.1719999999999999</v>
+      <c r="E77" s="9">
+        <v>1172</v>
       </c>
       <c r="F77" s="4">
         <v>23</v>
@@ -4005,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="M77" s="5">
-        <v>1.6020000000000001</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4046,7 +4060,7 @@
         <v>2</v>
       </c>
       <c r="M78" s="5">
-        <v>1.024</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4085,7 +4099,7 @@
         <v>15</v>
       </c>
       <c r="M79" s="5">
-        <v>1.3280000000000001</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4101,8 +4115,8 @@
       <c r="D80" s="4">
         <v>342</v>
       </c>
-      <c r="E80" s="4">
-        <v>1.133</v>
+      <c r="E80" s="9">
+        <v>1133</v>
       </c>
       <c r="F80" s="4">
         <v>8</v>
@@ -4126,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="M80" s="5">
-        <v>1.6279999999999999</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4137,8 +4151,8 @@
       <c r="C81" s="4">
         <v>458</v>
       </c>
-      <c r="D81" s="4">
-        <v>1.0840000000000001</v>
+      <c r="D81" s="9">
+        <v>1084</v>
       </c>
       <c r="E81" s="4">
         <v>895</v>
@@ -4165,46 +4179,46 @@
         <v>3</v>
       </c>
       <c r="M81" s="5">
-        <v>2.476</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="6">
         <v>715</v>
       </c>
       <c r="D82" s="5">
-        <v>2.4769999999999999</v>
+        <v>2477</v>
       </c>
       <c r="E82" s="5">
-        <v>15.475</v>
+        <v>15475</v>
       </c>
       <c r="F82" s="5">
-        <v>3.6749999999999998</v>
+        <v>3675</v>
       </c>
       <c r="G82" s="5">
-        <v>4.4020000000000001</v>
+        <v>4402</v>
       </c>
       <c r="H82" s="5">
-        <v>7.9429999999999996</v>
+        <v>7943</v>
       </c>
       <c r="I82" s="5">
-        <v>4.6040000000000001</v>
-      </c>
-      <c r="J82" s="5">
+        <v>4604</v>
+      </c>
+      <c r="J82" s="6">
         <v>342</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="6">
         <v>25</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="6">
         <v>100</v>
       </c>
       <c r="M82" s="5">
-        <v>39.758000000000003</v>
+        <v>39758</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4265,11 +4279,11 @@
       <c r="F84" s="4">
         <v>1</v>
       </c>
-      <c r="G84" s="4">
-        <v>1.0589999999999999</v>
-      </c>
-      <c r="H84" s="4">
-        <v>2.1579999999999999</v>
+      <c r="G84" s="9">
+        <v>1059</v>
+      </c>
+      <c r="H84" s="9">
+        <v>2158</v>
       </c>
       <c r="I84" s="4">
         <v>422</v>
@@ -4284,7 +4298,7 @@
         <v>52</v>
       </c>
       <c r="M84" s="5">
-        <v>3.75</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4307,8 +4321,8 @@
       <c r="G85" s="4">
         <v>632</v>
       </c>
-      <c r="H85" s="4">
-        <v>2.0870000000000002</v>
+      <c r="H85" s="9">
+        <v>2087</v>
       </c>
       <c r="I85" s="4">
         <v>641</v>
@@ -4323,7 +4337,7 @@
         <v>56</v>
       </c>
       <c r="M85" s="5">
-        <v>3.4980000000000002</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4351,8 +4365,8 @@
       <c r="H86" s="4">
         <v>899</v>
       </c>
-      <c r="I86" s="4">
-        <v>1.012</v>
+      <c r="I86" s="9">
+        <v>1012</v>
       </c>
       <c r="J86" s="4">
         <v>44</v>
@@ -4364,7 +4378,7 @@
         <v>38</v>
       </c>
       <c r="M86" s="5">
-        <v>2.875</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4390,8 +4404,8 @@
       <c r="H87" s="4">
         <v>661</v>
       </c>
-      <c r="I87" s="4">
-        <v>1.141</v>
+      <c r="I87" s="9">
+        <v>1141</v>
       </c>
       <c r="J87" s="4">
         <v>66</v>
@@ -4403,7 +4417,7 @@
         <v>59</v>
       </c>
       <c r="M87" s="5">
-        <v>2.5979999999999999</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4444,7 +4458,7 @@
         <v>67</v>
       </c>
       <c r="M88" s="5">
-        <v>2.9620000000000002</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4470,8 +4484,8 @@
       <c r="H89" s="4">
         <v>821</v>
       </c>
-      <c r="I89" s="4">
-        <v>1.0429999999999999</v>
+      <c r="I89" s="9">
+        <v>1043</v>
       </c>
       <c r="J89" s="4">
         <v>107</v>
@@ -4483,7 +4497,7 @@
         <v>71</v>
       </c>
       <c r="M89" s="5">
-        <v>2.8839999999999999</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4508,8 +4522,8 @@
       <c r="G90" s="4">
         <v>378</v>
       </c>
-      <c r="H90" s="4">
-        <v>1.105</v>
+      <c r="H90" s="9">
+        <v>1105</v>
       </c>
       <c r="I90" s="4">
         <v>781</v>
@@ -4524,7 +4538,7 @@
         <v>96</v>
       </c>
       <c r="M90" s="5">
-        <v>3.1869999999999998</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4547,8 +4561,8 @@
       <c r="G91" s="4">
         <v>320</v>
       </c>
-      <c r="H91" s="4">
-        <v>1.0389999999999999</v>
+      <c r="H91" s="9">
+        <v>1039</v>
       </c>
       <c r="I91" s="4">
         <v>895</v>
@@ -4563,7 +4577,7 @@
         <v>78</v>
       </c>
       <c r="M91" s="5">
-        <v>3.222</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4588,8 +4602,8 @@
       <c r="G92" s="4">
         <v>608</v>
       </c>
-      <c r="H92" s="4">
-        <v>1.2470000000000001</v>
+      <c r="H92" s="9">
+        <v>1247</v>
       </c>
       <c r="I92" s="4">
         <v>720</v>
@@ -4604,7 +4618,7 @@
         <v>109</v>
       </c>
       <c r="M92" s="5">
-        <v>3.6059999999999999</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4627,8 +4641,8 @@
       <c r="G93" s="4">
         <v>526</v>
       </c>
-      <c r="H93" s="4">
-        <v>1.0680000000000001</v>
+      <c r="H93" s="9">
+        <v>1068</v>
       </c>
       <c r="I93" s="4">
         <v>754</v>
@@ -4643,7 +4657,7 @@
         <v>90</v>
       </c>
       <c r="M93" s="5">
-        <v>3.44</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4668,8 +4682,8 @@
       <c r="G94" s="4">
         <v>538</v>
       </c>
-      <c r="H94" s="4">
-        <v>1.0489999999999999</v>
+      <c r="H94" s="9">
+        <v>1049</v>
       </c>
       <c r="I94" s="4">
         <v>669</v>
@@ -4684,7 +4698,7 @@
         <v>127</v>
       </c>
       <c r="M94" s="5">
-        <v>3.2690000000000001</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4723,7 +4737,7 @@
         <v>128</v>
       </c>
       <c r="M95" s="5">
-        <v>3.21</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4764,7 +4778,7 @@
         <v>159</v>
       </c>
       <c r="M96" s="5">
-        <v>3.0859999999999999</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4803,7 +4817,7 @@
         <v>209</v>
       </c>
       <c r="M97" s="5">
-        <v>3.452</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4844,7 +4858,7 @@
         <v>255</v>
       </c>
       <c r="M98" s="5">
-        <v>3.5379999999999998</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4858,8 +4872,8 @@
       <c r="D99" s="4">
         <v>114</v>
       </c>
-      <c r="E99" s="4">
-        <v>1.0369999999999999</v>
+      <c r="E99" s="9">
+        <v>1037</v>
       </c>
       <c r="F99" s="4">
         <v>262</v>
@@ -4883,7 +4897,7 @@
         <v>274</v>
       </c>
       <c r="M99" s="5">
-        <v>3.7610000000000001</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4908,8 +4922,8 @@
       <c r="G100" s="4">
         <v>542</v>
       </c>
-      <c r="H100" s="4">
-        <v>1.111</v>
+      <c r="H100" s="9">
+        <v>1111</v>
       </c>
       <c r="I100" s="4">
         <v>684</v>
@@ -4924,7 +4938,7 @@
         <v>294</v>
       </c>
       <c r="M100" s="5">
-        <v>3.8530000000000002</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4938,8 +4952,8 @@
       <c r="D101" s="4">
         <v>145</v>
       </c>
-      <c r="E101" s="4">
-        <v>1.2669999999999999</v>
+      <c r="E101" s="9">
+        <v>1267</v>
       </c>
       <c r="F101" s="4">
         <v>173</v>
@@ -4963,7 +4977,7 @@
         <v>334</v>
       </c>
       <c r="M101" s="5">
-        <v>3.7909999999999999</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -5004,7 +5018,7 @@
         <v>339</v>
       </c>
       <c r="M102" s="5">
-        <v>3.544</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -5018,8 +5032,8 @@
       <c r="D103" s="4">
         <v>211</v>
       </c>
-      <c r="E103" s="4">
-        <v>1.1950000000000001</v>
+      <c r="E103" s="9">
+        <v>1195</v>
       </c>
       <c r="F103" s="4">
         <v>89</v>
@@ -5043,7 +5057,7 @@
         <v>299</v>
       </c>
       <c r="M103" s="5">
-        <v>3.3130000000000002</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5084,7 +5098,7 @@
         <v>246</v>
       </c>
       <c r="M104" s="5">
-        <v>2.4609999999999999</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5123,7 +5137,7 @@
         <v>253</v>
       </c>
       <c r="M105" s="5">
-        <v>2.1989999999999998</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5164,7 +5178,7 @@
         <v>298</v>
       </c>
       <c r="M106" s="5">
-        <v>2.2869999999999999</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5203,46 +5217,46 @@
         <v>232</v>
       </c>
       <c r="M107" s="5">
-        <v>2.391</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="6">
         <v>871</v>
       </c>
       <c r="D108" s="5">
-        <v>1.9139999999999999</v>
+        <v>1914</v>
       </c>
       <c r="E108" s="5">
-        <v>13.59</v>
+        <v>13590</v>
       </c>
       <c r="F108" s="5">
-        <v>4.76</v>
+        <v>4760</v>
       </c>
       <c r="G108" s="5">
-        <v>11.378</v>
+        <v>11378</v>
       </c>
       <c r="H108" s="5">
-        <v>22.300999999999998</v>
+        <v>22301</v>
       </c>
       <c r="I108" s="5">
-        <v>15.805</v>
+        <v>15805</v>
       </c>
       <c r="J108" s="5">
-        <v>1.2509999999999999</v>
-      </c>
-      <c r="K108" s="5">
+        <v>1251</v>
+      </c>
+      <c r="K108" s="6">
         <v>144</v>
       </c>
       <c r="L108" s="5">
-        <v>4.1630000000000003</v>
+        <v>4163</v>
       </c>
       <c r="M108" s="5">
-        <v>76.177000000000007</v>
+        <v>76177</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5303,14 +5317,14 @@
       <c r="F110" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G110" s="4">
-        <v>3.3969999999999998</v>
-      </c>
-      <c r="H110" s="4">
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="I110" s="4">
-        <v>1.9179999999999999</v>
+      <c r="G110" s="9">
+        <v>3397</v>
+      </c>
+      <c r="H110" s="9">
+        <v>9050</v>
+      </c>
+      <c r="I110" s="9">
+        <v>1918</v>
       </c>
       <c r="J110" s="4">
         <v>36</v>
@@ -5322,7 +5336,7 @@
         <v>99</v>
       </c>
       <c r="M110" s="5">
-        <v>14.557</v>
+        <v>14557</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5342,14 +5356,14 @@
       <c r="F111" s="4">
         <v>1</v>
       </c>
-      <c r="G111" s="4">
-        <v>2.8149999999999999</v>
-      </c>
-      <c r="H111" s="4">
-        <v>8.8539999999999992</v>
-      </c>
-      <c r="I111" s="4">
-        <v>2.77</v>
+      <c r="G111" s="9">
+        <v>2815</v>
+      </c>
+      <c r="H111" s="9">
+        <v>8854</v>
+      </c>
+      <c r="I111" s="9">
+        <v>2770</v>
       </c>
       <c r="J111" s="4">
         <v>43</v>
@@ -5361,7 +5375,7 @@
         <v>24</v>
       </c>
       <c r="M111" s="5">
-        <v>14.603999999999999</v>
+        <v>14604</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5383,14 +5397,14 @@
       <c r="F112" s="4">
         <v>47</v>
       </c>
-      <c r="G112" s="4">
-        <v>2.5179999999999998</v>
-      </c>
-      <c r="H112" s="4">
-        <v>2.988</v>
-      </c>
-      <c r="I112" s="4">
-        <v>4.4790000000000001</v>
+      <c r="G112" s="9">
+        <v>2518</v>
+      </c>
+      <c r="H112" s="9">
+        <v>2988</v>
+      </c>
+      <c r="I112" s="9">
+        <v>4479</v>
       </c>
       <c r="J112" s="4">
         <v>538</v>
@@ -5402,7 +5416,7 @@
         <v>45</v>
       </c>
       <c r="M112" s="5">
-        <v>10.678000000000001</v>
+        <v>10678</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5422,14 +5436,14 @@
       <c r="F113" s="4">
         <v>123</v>
       </c>
-      <c r="G113" s="4">
-        <v>1.986</v>
-      </c>
-      <c r="H113" s="4">
-        <v>2.0640000000000001</v>
-      </c>
-      <c r="I113" s="4">
-        <v>5.282</v>
+      <c r="G113" s="9">
+        <v>1986</v>
+      </c>
+      <c r="H113" s="9">
+        <v>2064</v>
+      </c>
+      <c r="I113" s="9">
+        <v>5282</v>
       </c>
       <c r="J113" s="4">
         <v>624</v>
@@ -5441,7 +5455,7 @@
         <v>30</v>
       </c>
       <c r="M113" s="5">
-        <v>10.4</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5460,17 +5474,17 @@
       <c r="E114" s="4">
         <v>53</v>
       </c>
-      <c r="F114" s="4">
-        <v>1.542</v>
-      </c>
-      <c r="G114" s="4">
-        <v>1.046</v>
-      </c>
-      <c r="H114" s="4">
-        <v>2.8260000000000001</v>
-      </c>
-      <c r="I114" s="4">
-        <v>3.9649999999999999</v>
+      <c r="F114" s="9">
+        <v>1542</v>
+      </c>
+      <c r="G114" s="9">
+        <v>1046</v>
+      </c>
+      <c r="H114" s="9">
+        <v>2826</v>
+      </c>
+      <c r="I114" s="9">
+        <v>3965</v>
       </c>
       <c r="J114" s="4">
         <v>644</v>
@@ -5482,7 +5496,7 @@
         <v>36</v>
       </c>
       <c r="M114" s="5">
-        <v>10.231</v>
+        <v>10231</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5499,17 +5513,17 @@
       <c r="E115" s="4">
         <v>180</v>
       </c>
-      <c r="F115" s="4">
-        <v>1.59</v>
+      <c r="F115" s="9">
+        <v>1590</v>
       </c>
       <c r="G115" s="4">
         <v>791</v>
       </c>
-      <c r="H115" s="4">
-        <v>2.399</v>
-      </c>
-      <c r="I115" s="4">
-        <v>4.3600000000000003</v>
+      <c r="H115" s="9">
+        <v>2399</v>
+      </c>
+      <c r="I115" s="9">
+        <v>4360</v>
       </c>
       <c r="J115" s="4">
         <v>714</v>
@@ -5521,7 +5535,7 @@
         <v>48</v>
       </c>
       <c r="M115" s="5">
-        <v>10.445</v>
+        <v>10445</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5540,17 +5554,17 @@
       <c r="E116" s="4">
         <v>611</v>
       </c>
-      <c r="F116" s="4">
-        <v>1.6839999999999999</v>
+      <c r="F116" s="9">
+        <v>1684</v>
       </c>
       <c r="G116" s="4">
         <v>881</v>
       </c>
-      <c r="H116" s="4">
-        <v>2.9350000000000001</v>
-      </c>
-      <c r="I116" s="4">
-        <v>3.4830000000000001</v>
+      <c r="H116" s="9">
+        <v>2935</v>
+      </c>
+      <c r="I116" s="9">
+        <v>3483</v>
       </c>
       <c r="J116" s="4">
         <v>685</v>
@@ -5562,7 +5576,7 @@
         <v>37</v>
       </c>
       <c r="M116" s="5">
-        <v>10.462</v>
+        <v>10462</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5576,20 +5590,20 @@
       <c r="D117" s="4">
         <v>174</v>
       </c>
-      <c r="E117" s="4">
-        <v>1.286</v>
-      </c>
-      <c r="F117" s="4">
-        <v>1.395</v>
+      <c r="E117" s="9">
+        <v>1286</v>
+      </c>
+      <c r="F117" s="9">
+        <v>1395</v>
       </c>
       <c r="G117" s="4">
         <v>883</v>
       </c>
-      <c r="H117" s="4">
-        <v>2.9260000000000002</v>
-      </c>
-      <c r="I117" s="4">
-        <v>3.6859999999999999</v>
+      <c r="H117" s="9">
+        <v>2926</v>
+      </c>
+      <c r="I117" s="9">
+        <v>3686</v>
       </c>
       <c r="J117" s="4">
         <v>687</v>
@@ -5601,7 +5615,7 @@
         <v>37</v>
       </c>
       <c r="M117" s="5">
-        <v>11.260999999999999</v>
+        <v>11261</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5617,20 +5631,20 @@
       <c r="D118" s="4">
         <v>28</v>
       </c>
-      <c r="E118" s="4">
-        <v>1.044</v>
-      </c>
-      <c r="F118" s="4">
-        <v>1.679</v>
-      </c>
-      <c r="G118" s="4">
-        <v>1.3620000000000001</v>
-      </c>
-      <c r="H118" s="4">
-        <v>3.169</v>
-      </c>
-      <c r="I118" s="4">
-        <v>3.1869999999999998</v>
+      <c r="E118" s="9">
+        <v>1044</v>
+      </c>
+      <c r="F118" s="9">
+        <v>1679</v>
+      </c>
+      <c r="G118" s="9">
+        <v>1362</v>
+      </c>
+      <c r="H118" s="9">
+        <v>3169</v>
+      </c>
+      <c r="I118" s="9">
+        <v>3187</v>
       </c>
       <c r="J118" s="4">
         <v>717</v>
@@ -5642,7 +5656,7 @@
         <v>42</v>
       </c>
       <c r="M118" s="5">
-        <v>11.388999999999999</v>
+        <v>11389</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5656,20 +5670,20 @@
       <c r="D119" s="4">
         <v>191</v>
       </c>
-      <c r="E119" s="4">
-        <v>1.964</v>
-      </c>
-      <c r="F119" s="4">
-        <v>1.1930000000000001</v>
-      </c>
-      <c r="G119" s="4">
-        <v>1.35</v>
-      </c>
-      <c r="H119" s="4">
-        <v>3.2669999999999999</v>
-      </c>
-      <c r="I119" s="4">
-        <v>3.4089999999999998</v>
+      <c r="E119" s="9">
+        <v>1964</v>
+      </c>
+      <c r="F119" s="9">
+        <v>1193</v>
+      </c>
+      <c r="G119" s="9">
+        <v>1350</v>
+      </c>
+      <c r="H119" s="9">
+        <v>3267</v>
+      </c>
+      <c r="I119" s="9">
+        <v>3409</v>
       </c>
       <c r="J119" s="4">
         <v>669</v>
@@ -5681,7 +5695,7 @@
         <v>52</v>
       </c>
       <c r="M119" s="5">
-        <v>12.292</v>
+        <v>12292</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5697,20 +5711,20 @@
       <c r="D120" s="4">
         <v>35</v>
       </c>
-      <c r="E120" s="4">
-        <v>1.2010000000000001</v>
-      </c>
-      <c r="F120" s="4">
-        <v>1.72</v>
-      </c>
-      <c r="G120" s="4">
-        <v>1.0349999999999999</v>
-      </c>
-      <c r="H120" s="4">
-        <v>2.7130000000000001</v>
-      </c>
-      <c r="I120" s="4">
-        <v>2.8929999999999998</v>
+      <c r="E120" s="9">
+        <v>1201</v>
+      </c>
+      <c r="F120" s="9">
+        <v>1720</v>
+      </c>
+      <c r="G120" s="9">
+        <v>1035</v>
+      </c>
+      <c r="H120" s="9">
+        <v>2713</v>
+      </c>
+      <c r="I120" s="9">
+        <v>2893</v>
       </c>
       <c r="J120" s="4">
         <v>472</v>
@@ -5722,7 +5736,7 @@
         <v>49</v>
       </c>
       <c r="M120" s="5">
-        <v>10.308</v>
+        <v>10308</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5736,20 +5750,20 @@
       <c r="D121" s="4">
         <v>210</v>
       </c>
-      <c r="E121" s="4">
-        <v>2.1909999999999998</v>
-      </c>
-      <c r="F121" s="4">
-        <v>1.4470000000000001</v>
-      </c>
-      <c r="G121" s="4">
-        <v>1.2230000000000001</v>
-      </c>
-      <c r="H121" s="4">
-        <v>2.762</v>
-      </c>
-      <c r="I121" s="4">
-        <v>2.6720000000000002</v>
+      <c r="E121" s="9">
+        <v>2191</v>
+      </c>
+      <c r="F121" s="9">
+        <v>1447</v>
+      </c>
+      <c r="G121" s="9">
+        <v>1223</v>
+      </c>
+      <c r="H121" s="9">
+        <v>2762</v>
+      </c>
+      <c r="I121" s="9">
+        <v>2672</v>
       </c>
       <c r="J121" s="4">
         <v>386</v>
@@ -5761,7 +5775,7 @@
         <v>34</v>
       </c>
       <c r="M121" s="5">
-        <v>11.121</v>
+        <v>11121</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5777,20 +5791,20 @@
       <c r="D122" s="4">
         <v>22</v>
       </c>
-      <c r="E122" s="4">
-        <v>1.302</v>
-      </c>
-      <c r="F122" s="4">
-        <v>1.712</v>
-      </c>
-      <c r="G122" s="4">
-        <v>1.107</v>
-      </c>
-      <c r="H122" s="4">
-        <v>2.09</v>
-      </c>
-      <c r="I122" s="4">
-        <v>2.5609999999999999</v>
+      <c r="E122" s="9">
+        <v>1302</v>
+      </c>
+      <c r="F122" s="9">
+        <v>1712</v>
+      </c>
+      <c r="G122" s="9">
+        <v>1107</v>
+      </c>
+      <c r="H122" s="9">
+        <v>2090</v>
+      </c>
+      <c r="I122" s="9">
+        <v>2561</v>
       </c>
       <c r="J122" s="4">
         <v>338</v>
@@ -5802,7 +5816,7 @@
         <v>42</v>
       </c>
       <c r="M122" s="5">
-        <v>9.3520000000000003</v>
+        <v>9352</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5816,20 +5830,20 @@
       <c r="D123" s="4">
         <v>237</v>
       </c>
-      <c r="E123" s="4">
-        <v>2.5110000000000001</v>
-      </c>
-      <c r="F123" s="4">
-        <v>1.456</v>
-      </c>
-      <c r="G123" s="4">
-        <v>1.0780000000000001</v>
-      </c>
-      <c r="H123" s="4">
-        <v>2.1360000000000001</v>
-      </c>
-      <c r="I123" s="4">
-        <v>1.8320000000000001</v>
+      <c r="E123" s="9">
+        <v>2511</v>
+      </c>
+      <c r="F123" s="9">
+        <v>1456</v>
+      </c>
+      <c r="G123" s="9">
+        <v>1078</v>
+      </c>
+      <c r="H123" s="9">
+        <v>2136</v>
+      </c>
+      <c r="I123" s="9">
+        <v>1832</v>
       </c>
       <c r="J123" s="4">
         <v>226</v>
@@ -5841,7 +5855,7 @@
         <v>67</v>
       </c>
       <c r="M123" s="5">
-        <v>9.6910000000000007</v>
+        <v>9691</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5857,20 +5871,20 @@
       <c r="D124" s="4">
         <v>47</v>
       </c>
-      <c r="E124" s="4">
-        <v>1.7370000000000001</v>
-      </c>
-      <c r="F124" s="4">
-        <v>1.5860000000000001</v>
-      </c>
-      <c r="G124" s="4">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="H124" s="4">
-        <v>1.82</v>
-      </c>
-      <c r="I124" s="4">
-        <v>1.917</v>
+      <c r="E124" s="9">
+        <v>1737</v>
+      </c>
+      <c r="F124" s="9">
+        <v>1586</v>
+      </c>
+      <c r="G124" s="9">
+        <v>1045</v>
+      </c>
+      <c r="H124" s="9">
+        <v>1820</v>
+      </c>
+      <c r="I124" s="9">
+        <v>1917</v>
       </c>
       <c r="J124" s="4">
         <v>253</v>
@@ -5882,7 +5896,7 @@
         <v>61</v>
       </c>
       <c r="M124" s="5">
-        <v>8.6140000000000008</v>
+        <v>8614</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5896,20 +5910,20 @@
       <c r="D125" s="4">
         <v>289</v>
       </c>
-      <c r="E125" s="4">
-        <v>3.327</v>
-      </c>
-      <c r="F125" s="4">
-        <v>1.0569999999999999</v>
+      <c r="E125" s="9">
+        <v>3327</v>
+      </c>
+      <c r="F125" s="9">
+        <v>1057</v>
       </c>
       <c r="G125" s="4">
         <v>900</v>
       </c>
-      <c r="H125" s="4">
-        <v>1.6359999999999999</v>
-      </c>
-      <c r="I125" s="4">
-        <v>1.218</v>
+      <c r="H125" s="9">
+        <v>1636</v>
+      </c>
+      <c r="I125" s="9">
+        <v>1218</v>
       </c>
       <c r="J125" s="4">
         <v>114</v>
@@ -5921,7 +5935,7 @@
         <v>57</v>
       </c>
       <c r="M125" s="5">
-        <v>8.75</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5937,8 +5951,8 @@
       <c r="D126" s="4">
         <v>92</v>
       </c>
-      <c r="E126" s="4">
-        <v>2.6110000000000002</v>
+      <c r="E126" s="9">
+        <v>2611</v>
       </c>
       <c r="F126" s="4">
         <v>896</v>
@@ -5946,11 +5960,11 @@
       <c r="G126" s="4">
         <v>754</v>
       </c>
-      <c r="H126" s="4">
-        <v>1.835</v>
-      </c>
-      <c r="I126" s="4">
-        <v>1.556</v>
+      <c r="H126" s="9">
+        <v>1835</v>
+      </c>
+      <c r="I126" s="9">
+        <v>1556</v>
       </c>
       <c r="J126" s="4">
         <v>117</v>
@@ -5962,7 +5976,7 @@
         <v>67</v>
       </c>
       <c r="M126" s="5">
-        <v>8.016</v>
+        <v>8016</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5976,8 +5990,8 @@
       <c r="D127" s="4">
         <v>406</v>
       </c>
-      <c r="E127" s="4">
-        <v>3.9830000000000001</v>
+      <c r="E127" s="9">
+        <v>3983</v>
       </c>
       <c r="F127" s="4">
         <v>605</v>
@@ -5985,8 +5999,8 @@
       <c r="G127" s="4">
         <v>627</v>
       </c>
-      <c r="H127" s="4">
-        <v>1.488</v>
+      <c r="H127" s="9">
+        <v>1488</v>
       </c>
       <c r="I127" s="4">
         <v>898</v>
@@ -6001,7 +6015,7 @@
         <v>55</v>
       </c>
       <c r="M127" s="5">
-        <v>8.3320000000000007</v>
+        <v>8332</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6017,8 +6031,8 @@
       <c r="D128" s="4">
         <v>111</v>
       </c>
-      <c r="E128" s="4">
-        <v>2.6760000000000002</v>
+      <c r="E128" s="9">
+        <v>2676</v>
       </c>
       <c r="F128" s="4">
         <v>364</v>
@@ -6026,11 +6040,11 @@
       <c r="G128" s="4">
         <v>564</v>
       </c>
-      <c r="H128" s="4">
-        <v>1.1970000000000001</v>
-      </c>
-      <c r="I128" s="4">
-        <v>1.4510000000000001</v>
+      <c r="H128" s="9">
+        <v>1197</v>
+      </c>
+      <c r="I128" s="9">
+        <v>1451</v>
       </c>
       <c r="J128" s="4">
         <v>76</v>
@@ -6042,7 +6056,7 @@
         <v>44</v>
       </c>
       <c r="M128" s="5">
-        <v>6.548</v>
+        <v>6548</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6056,8 +6070,8 @@
       <c r="D129" s="4">
         <v>593</v>
       </c>
-      <c r="E129" s="4">
-        <v>3.75</v>
+      <c r="E129" s="9">
+        <v>3750</v>
       </c>
       <c r="F129" s="4">
         <v>237</v>
@@ -6081,7 +6095,7 @@
         <v>42</v>
       </c>
       <c r="M129" s="5">
-        <v>7.0389999999999997</v>
+        <v>7039</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6097,8 +6111,8 @@
       <c r="D130" s="4">
         <v>143</v>
       </c>
-      <c r="E130" s="4">
-        <v>2.1019999999999999</v>
+      <c r="E130" s="9">
+        <v>2102</v>
       </c>
       <c r="F130" s="4">
         <v>117</v>
@@ -6122,7 +6136,7 @@
         <v>33</v>
       </c>
       <c r="M130" s="5">
-        <v>4.33</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6136,8 +6150,8 @@
       <c r="D131" s="4">
         <v>670</v>
       </c>
-      <c r="E131" s="4">
-        <v>2.7080000000000002</v>
+      <c r="E131" s="9">
+        <v>2708</v>
       </c>
       <c r="F131" s="4">
         <v>67</v>
@@ -6161,7 +6175,7 @@
         <v>59</v>
       </c>
       <c r="M131" s="5">
-        <v>5.0259999999999998</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6177,8 +6191,8 @@
       <c r="D132" s="4">
         <v>393</v>
       </c>
-      <c r="E132" s="4">
-        <v>2.8580000000000001</v>
+      <c r="E132" s="9">
+        <v>2858</v>
       </c>
       <c r="F132" s="4">
         <v>44</v>
@@ -6202,7 +6216,7 @@
         <v>62</v>
       </c>
       <c r="M132" s="5">
-        <v>5.0880000000000001</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6210,14 +6224,14 @@
       <c r="B133" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C133" s="4">
-        <v>1.782</v>
-      </c>
-      <c r="D133" s="4">
-        <v>1.3919999999999999</v>
-      </c>
-      <c r="E133" s="4">
-        <v>3.456</v>
+      <c r="C133" s="9">
+        <v>1782</v>
+      </c>
+      <c r="D133" s="9">
+        <v>1392</v>
+      </c>
+      <c r="E133" s="9">
+        <v>3456</v>
       </c>
       <c r="F133" s="4">
         <v>31</v>
@@ -6241,46 +6255,46 @@
         <v>80</v>
       </c>
       <c r="M133" s="5">
-        <v>7.5739999999999998</v>
+        <v>7574</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
+      <c r="B134" s="7"/>
       <c r="C134" s="5">
-        <v>3.29</v>
+        <v>3290</v>
       </c>
       <c r="D134" s="5">
-        <v>5.6189999999999998</v>
+        <v>5619</v>
       </c>
       <c r="E134" s="5">
-        <v>41.838999999999999</v>
+        <v>41839</v>
       </c>
       <c r="F134" s="5">
-        <v>20.593</v>
+        <v>20593</v>
       </c>
       <c r="G134" s="5">
-        <v>26.99</v>
+        <v>26990</v>
       </c>
       <c r="H134" s="5">
-        <v>61.018000000000001</v>
+        <v>61018</v>
       </c>
       <c r="I134" s="5">
-        <v>56.41</v>
+        <v>56410</v>
       </c>
       <c r="J134" s="5">
-        <v>7.5389999999999997</v>
+        <v>7539</v>
       </c>
       <c r="K134" s="5">
-        <v>1.6080000000000001</v>
+        <v>1608</v>
       </c>
       <c r="L134" s="5">
-        <v>1.202</v>
+        <v>1202</v>
       </c>
       <c r="M134" s="5">
-        <v>226.108</v>
+        <v>226108</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6344,8 +6358,8 @@
       <c r="G136" s="4">
         <v>985</v>
       </c>
-      <c r="H136" s="4">
-        <v>1.0620000000000001</v>
+      <c r="H136" s="9">
+        <v>1062</v>
       </c>
       <c r="I136" s="4">
         <v>178</v>
@@ -6360,7 +6374,7 @@
         <v>22</v>
       </c>
       <c r="M136" s="5">
-        <v>2.266</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6383,8 +6397,8 @@
       <c r="G137" s="4">
         <v>754</v>
       </c>
-      <c r="H137" s="4">
-        <v>1.069</v>
+      <c r="H137" s="9">
+        <v>1069</v>
       </c>
       <c r="I137" s="4">
         <v>288</v>
@@ -6399,7 +6413,7 @@
         <v>4</v>
       </c>
       <c r="M137" s="5">
-        <v>2.1560000000000001</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6440,7 +6454,7 @@
         <v>3</v>
       </c>
       <c r="M138" s="5">
-        <v>1.575</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6479,7 +6493,7 @@
         <v>6</v>
       </c>
       <c r="M139" s="5">
-        <v>1.5740000000000001</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6520,7 +6534,7 @@
         <v>3</v>
       </c>
       <c r="M140" s="5">
-        <v>1.4630000000000001</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6559,7 +6573,7 @@
         <v>4</v>
       </c>
       <c r="M141" s="5">
-        <v>1.34</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6600,7 +6614,7 @@
         <v>6</v>
       </c>
       <c r="M142" s="5">
-        <v>1.421</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6639,7 +6653,7 @@
         <v>6</v>
       </c>
       <c r="M143" s="5">
-        <v>1.355</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6680,7 +6694,7 @@
         <v>4</v>
       </c>
       <c r="M144" s="5">
-        <v>1.516</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6719,7 +6733,7 @@
         <v>6</v>
       </c>
       <c r="M145" s="5">
-        <v>1.3680000000000001</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6760,7 +6774,7 @@
         <v>9</v>
       </c>
       <c r="M146" s="5">
-        <v>1.3380000000000001</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6799,7 +6813,7 @@
         <v>6</v>
       </c>
       <c r="M147" s="5">
-        <v>1.383</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6840,7 +6854,7 @@
         <v>9</v>
       </c>
       <c r="M148" s="5">
-        <v>1.3340000000000001</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6879,7 +6893,7 @@
         <v>4</v>
       </c>
       <c r="M149" s="5">
-        <v>1.2589999999999999</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6920,7 +6934,7 @@
         <v>8</v>
       </c>
       <c r="M150" s="5">
-        <v>1.3440000000000001</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6959,7 +6973,7 @@
         <v>11</v>
       </c>
       <c r="M151" s="5">
-        <v>1.2589999999999999</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -7000,7 +7014,7 @@
         <v>10</v>
       </c>
       <c r="M152" s="5">
-        <v>1.2250000000000001</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -7039,7 +7053,7 @@
         <v>6</v>
       </c>
       <c r="M153" s="5">
-        <v>1.292</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7079,7 +7093,7 @@
       <c r="L154" s="4">
         <v>9</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="6">
         <v>957</v>
       </c>
     </row>
@@ -7119,7 +7133,7 @@
         <v>7</v>
       </c>
       <c r="M155" s="5">
-        <v>1.169</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7159,7 +7173,7 @@
       <c r="L156" s="4">
         <v>3</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="6">
         <v>787</v>
       </c>
     </row>
@@ -7198,7 +7212,7 @@
       <c r="L157" s="4">
         <v>3</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="6">
         <v>927</v>
       </c>
     </row>
@@ -7240,7 +7254,7 @@
         <v>5</v>
       </c>
       <c r="M158" s="5">
-        <v>1.0720000000000001</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7279,46 +7293,46 @@
         <v>10</v>
       </c>
       <c r="M159" s="5">
-        <v>1.6759999999999999</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
+      <c r="B160" s="7"/>
+      <c r="C160" s="6">
         <v>639</v>
       </c>
       <c r="D160" s="5">
-        <v>2.0579999999999998</v>
+        <v>2058</v>
       </c>
       <c r="E160" s="5">
-        <v>10.725</v>
+        <v>10725</v>
       </c>
       <c r="F160" s="5">
-        <v>3.6589999999999998</v>
+        <v>3659</v>
       </c>
       <c r="G160" s="5">
-        <v>5.9489999999999998</v>
+        <v>5949</v>
       </c>
       <c r="H160" s="5">
-        <v>6.5049999999999999</v>
+        <v>6505</v>
       </c>
       <c r="I160" s="5">
-        <v>3.1240000000000001</v>
-      </c>
-      <c r="J160" s="5">
+        <v>3124</v>
+      </c>
+      <c r="J160" s="6">
         <v>192</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="6">
         <v>41</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="6">
         <v>164</v>
       </c>
       <c r="M160" s="5">
-        <v>33.055999999999997</v>
+        <v>33056</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7379,11 +7393,11 @@
       <c r="F162" s="4">
         <v>4</v>
       </c>
-      <c r="G162" s="4">
-        <v>1.113</v>
-      </c>
-      <c r="H162" s="4">
-        <v>1.2330000000000001</v>
+      <c r="G162" s="9">
+        <v>1113</v>
+      </c>
+      <c r="H162" s="9">
+        <v>1233</v>
       </c>
       <c r="I162" s="4">
         <v>247</v>
@@ -7398,7 +7412,7 @@
         <v>28</v>
       </c>
       <c r="M162" s="5">
-        <v>2.6840000000000002</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7418,11 +7432,11 @@
       <c r="F163" s="4">
         <v>2</v>
       </c>
-      <c r="G163" s="4">
-        <v>1</v>
-      </c>
-      <c r="H163" s="4">
-        <v>1.23</v>
+      <c r="G163" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H163" s="9">
+        <v>1230</v>
       </c>
       <c r="I163" s="4">
         <v>399</v>
@@ -7437,7 +7451,7 @@
         <v>8</v>
       </c>
       <c r="M163" s="5">
-        <v>2.702</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7478,7 +7492,7 @@
         <v>9</v>
       </c>
       <c r="M164" s="5">
-        <v>1.9930000000000001</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7517,7 +7531,7 @@
         <v>8</v>
       </c>
       <c r="M165" s="5">
-        <v>1.9970000000000001</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7558,7 +7572,7 @@
         <v>6</v>
       </c>
       <c r="M166" s="5">
-        <v>1.96</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7597,7 +7611,7 @@
         <v>14</v>
       </c>
       <c r="M167" s="5">
-        <v>2.0019999999999998</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7638,7 +7652,7 @@
         <v>11</v>
       </c>
       <c r="M168" s="5">
-        <v>2.036</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7677,7 +7691,7 @@
         <v>18</v>
       </c>
       <c r="M169" s="5">
-        <v>2.0030000000000001</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7718,7 +7732,7 @@
         <v>14</v>
       </c>
       <c r="M170" s="5">
-        <v>1.9750000000000001</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7757,7 +7771,7 @@
         <v>12</v>
       </c>
       <c r="M171" s="5">
-        <v>1.982</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7798,7 +7812,7 @@
         <v>5</v>
       </c>
       <c r="M172" s="5">
-        <v>1.776</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7837,7 +7851,7 @@
         <v>10</v>
       </c>
       <c r="M173" s="5">
-        <v>1.82</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7878,7 +7892,7 @@
         <v>8</v>
       </c>
       <c r="M174" s="5">
-        <v>1.794</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7917,7 +7931,7 @@
         <v>11</v>
       </c>
       <c r="M175" s="5">
-        <v>1.657</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7958,7 +7972,7 @@
         <v>16</v>
       </c>
       <c r="M176" s="5">
-        <v>1.605</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7997,7 +8011,7 @@
         <v>18</v>
       </c>
       <c r="M177" s="5">
-        <v>1.5029999999999999</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8038,7 +8052,7 @@
         <v>16</v>
       </c>
       <c r="M178" s="5">
-        <v>1.4630000000000001</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8077,7 +8091,7 @@
         <v>14</v>
       </c>
       <c r="M179" s="5">
-        <v>1.5640000000000001</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8118,7 +8132,7 @@
         <v>11</v>
       </c>
       <c r="M180" s="5">
-        <v>1.103</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8157,7 +8171,7 @@
         <v>13</v>
       </c>
       <c r="M181" s="5">
-        <v>1.264</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8197,7 +8211,7 @@
       <c r="L182" s="4">
         <v>5</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="6">
         <v>779</v>
       </c>
     </row>
@@ -8236,7 +8250,7 @@
       <c r="L183" s="4">
         <v>5</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="6">
         <v>887</v>
       </c>
     </row>
@@ -8277,7 +8291,7 @@
       <c r="L184" s="4">
         <v>10</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="6">
         <v>896</v>
       </c>
     </row>
@@ -8317,46 +8331,46 @@
         <v>10</v>
       </c>
       <c r="M185" s="5">
-        <v>1.4390000000000001</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
+      <c r="B186" s="7"/>
       <c r="C186" s="5">
-        <v>1.054</v>
+        <v>1054</v>
       </c>
       <c r="D186" s="5">
-        <v>1.8240000000000001</v>
+        <v>1824</v>
       </c>
       <c r="E186" s="5">
-        <v>10.118</v>
+        <v>10118</v>
       </c>
       <c r="F186" s="5">
-        <v>3.8839999999999999</v>
+        <v>3884</v>
       </c>
       <c r="G186" s="5">
-        <v>7.0679999999999996</v>
+        <v>7068</v>
       </c>
       <c r="H186" s="5">
-        <v>10.628</v>
+        <v>10628</v>
       </c>
       <c r="I186" s="5">
-        <v>5.4930000000000003</v>
-      </c>
-      <c r="J186" s="5">
+        <v>5493</v>
+      </c>
+      <c r="J186" s="6">
         <v>488</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="6">
         <v>47</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="6">
         <v>280</v>
       </c>
       <c r="M186" s="5">
-        <v>40.884</v>
+        <v>40884</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -8435,7 +8449,7 @@
       <c r="L188" s="4">
         <v>4</v>
       </c>
-      <c r="M188" s="5">
+      <c r="M188" s="6">
         <v>843</v>
       </c>
     </row>
@@ -8474,7 +8488,7 @@
       <c r="L189" s="4">
         <v>2</v>
       </c>
-      <c r="M189" s="5">
+      <c r="M189" s="6">
         <v>719</v>
       </c>
     </row>
@@ -8515,7 +8529,7 @@
       <c r="L190" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M190" s="5">
+      <c r="M190" s="6">
         <v>512</v>
       </c>
     </row>
@@ -8554,7 +8568,7 @@
       <c r="L191" s="4">
         <v>2</v>
       </c>
-      <c r="M191" s="5">
+      <c r="M191" s="6">
         <v>406</v>
       </c>
     </row>
@@ -8595,7 +8609,7 @@
       <c r="L192" s="4">
         <v>1</v>
       </c>
-      <c r="M192" s="5">
+      <c r="M192" s="6">
         <v>460</v>
       </c>
     </row>
@@ -8634,7 +8648,7 @@
       <c r="L193" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="6">
         <v>426</v>
       </c>
     </row>
@@ -8675,7 +8689,7 @@
       <c r="L194" s="4">
         <v>1</v>
       </c>
-      <c r="M194" s="5">
+      <c r="M194" s="6">
         <v>525</v>
       </c>
     </row>
@@ -8714,7 +8728,7 @@
       <c r="L195" s="4">
         <v>2</v>
       </c>
-      <c r="M195" s="5">
+      <c r="M195" s="6">
         <v>452</v>
       </c>
     </row>
@@ -8755,7 +8769,7 @@
       <c r="L196" s="4">
         <v>3</v>
       </c>
-      <c r="M196" s="5">
+      <c r="M196" s="6">
         <v>562</v>
       </c>
     </row>
@@ -8794,7 +8808,7 @@
       <c r="L197" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M197" s="5">
+      <c r="M197" s="6">
         <v>555</v>
       </c>
     </row>
@@ -8835,7 +8849,7 @@
       <c r="L198" s="4">
         <v>2</v>
       </c>
-      <c r="M198" s="5">
+      <c r="M198" s="6">
         <v>606</v>
       </c>
     </row>
@@ -8874,7 +8888,7 @@
       <c r="L199" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M199" s="5">
+      <c r="M199" s="6">
         <v>585</v>
       </c>
     </row>
@@ -8915,7 +8929,7 @@
       <c r="L200" s="4">
         <v>4</v>
       </c>
-      <c r="M200" s="5">
+      <c r="M200" s="6">
         <v>656</v>
       </c>
     </row>
@@ -8954,7 +8968,7 @@
       <c r="L201" s="4">
         <v>4</v>
       </c>
-      <c r="M201" s="5">
+      <c r="M201" s="6">
         <v>673</v>
       </c>
     </row>
@@ -8995,7 +9009,7 @@
       <c r="L202" s="4">
         <v>6</v>
       </c>
-      <c r="M202" s="5">
+      <c r="M202" s="6">
         <v>654</v>
       </c>
     </row>
@@ -9034,7 +9048,7 @@
       <c r="L203" s="4">
         <v>5</v>
       </c>
-      <c r="M203" s="5">
+      <c r="M203" s="6">
         <v>705</v>
       </c>
     </row>
@@ -9075,7 +9089,7 @@
       <c r="L204" s="4">
         <v>8</v>
       </c>
-      <c r="M204" s="5">
+      <c r="M204" s="6">
         <v>661</v>
       </c>
     </row>
@@ -9114,7 +9128,7 @@
       <c r="L205" s="4">
         <v>3</v>
       </c>
-      <c r="M205" s="5">
+      <c r="M205" s="6">
         <v>685</v>
       </c>
     </row>
@@ -9155,7 +9169,7 @@
       <c r="L206" s="4">
         <v>4</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="6">
         <v>561</v>
       </c>
     </row>
@@ -9194,7 +9208,7 @@
       <c r="L207" s="4">
         <v>5</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="6">
         <v>632</v>
       </c>
     </row>
@@ -9235,7 +9249,7 @@
       <c r="L208" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="6">
         <v>385</v>
       </c>
     </row>
@@ -9274,7 +9288,7 @@
       <c r="L209" s="4">
         <v>3</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="6">
         <v>525</v>
       </c>
     </row>
@@ -9315,7 +9329,7 @@
       <c r="L210" s="4">
         <v>4</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="6">
         <v>594</v>
       </c>
     </row>
@@ -9354,7 +9368,7 @@
       <c r="L211" s="4">
         <v>1</v>
       </c>
-      <c r="M211" s="5">
+      <c r="M211" s="6">
         <v>974</v>
       </c>
     </row>
@@ -9362,39 +9376,39 @@
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
+      <c r="B212" s="7"/>
+      <c r="C212" s="6">
         <v>374</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="6">
         <v>841</v>
       </c>
       <c r="E212" s="5">
-        <v>5.05</v>
+        <v>5050</v>
       </c>
       <c r="F212" s="5">
-        <v>1.0900000000000001</v>
+        <v>1090</v>
       </c>
       <c r="G212" s="5">
-        <v>2.2789999999999999</v>
+        <v>2279</v>
       </c>
       <c r="H212" s="5">
-        <v>2.9550000000000001</v>
+        <v>2955</v>
       </c>
       <c r="I212" s="5">
-        <v>1.57</v>
-      </c>
-      <c r="J212" s="5">
+        <v>1570</v>
+      </c>
+      <c r="J212" s="6">
         <v>111</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="6">
         <v>22</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="6">
         <v>64</v>
       </c>
       <c r="M212" s="5">
-        <v>14.356</v>
+        <v>14356</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -9473,7 +9487,7 @@
       <c r="L214" s="4">
         <v>12</v>
       </c>
-      <c r="M214" s="5">
+      <c r="M214" s="6">
         <v>432</v>
       </c>
     </row>
@@ -9512,7 +9526,7 @@
       <c r="L215" s="4">
         <v>1</v>
       </c>
-      <c r="M215" s="5">
+      <c r="M215" s="6">
         <v>417</v>
       </c>
     </row>
@@ -9553,7 +9567,7 @@
       <c r="L216" s="4">
         <v>1</v>
       </c>
-      <c r="M216" s="5">
+      <c r="M216" s="6">
         <v>308</v>
       </c>
     </row>
@@ -9592,7 +9606,7 @@
       <c r="L217" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M217" s="5">
+      <c r="M217" s="6">
         <v>261</v>
       </c>
     </row>
@@ -9633,7 +9647,7 @@
       <c r="L218" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M218" s="5">
+      <c r="M218" s="6">
         <v>271</v>
       </c>
     </row>
@@ -9672,7 +9686,7 @@
       <c r="L219" s="4">
         <v>1</v>
       </c>
-      <c r="M219" s="5">
+      <c r="M219" s="6">
         <v>224</v>
       </c>
     </row>
@@ -9713,7 +9727,7 @@
       <c r="L220" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M220" s="5">
+      <c r="M220" s="6">
         <v>316</v>
       </c>
     </row>
@@ -9752,7 +9766,7 @@
       <c r="L221" s="4">
         <v>1</v>
       </c>
-      <c r="M221" s="5">
+      <c r="M221" s="6">
         <v>245</v>
       </c>
     </row>
@@ -9793,7 +9807,7 @@
       <c r="L222" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M222" s="5">
+      <c r="M222" s="6">
         <v>293</v>
       </c>
     </row>
@@ -9832,7 +9846,7 @@
       <c r="L223" s="4">
         <v>1</v>
       </c>
-      <c r="M223" s="5">
+      <c r="M223" s="6">
         <v>299</v>
       </c>
     </row>
@@ -9873,7 +9887,7 @@
       <c r="L224" s="4">
         <v>2</v>
       </c>
-      <c r="M224" s="5">
+      <c r="M224" s="6">
         <v>332</v>
       </c>
     </row>
@@ -9912,7 +9926,7 @@
       <c r="L225" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M225" s="5">
+      <c r="M225" s="6">
         <v>278</v>
       </c>
     </row>
@@ -9953,7 +9967,7 @@
       <c r="L226" s="4">
         <v>1</v>
       </c>
-      <c r="M226" s="5">
+      <c r="M226" s="6">
         <v>356</v>
       </c>
     </row>
@@ -9992,7 +10006,7 @@
       <c r="L227" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M227" s="5">
+      <c r="M227" s="6">
         <v>366</v>
       </c>
     </row>
@@ -10033,7 +10047,7 @@
       <c r="L228" s="4">
         <v>1</v>
       </c>
-      <c r="M228" s="5">
+      <c r="M228" s="6">
         <v>432</v>
       </c>
     </row>
@@ -10072,7 +10086,7 @@
       <c r="L229" s="4">
         <v>2</v>
       </c>
-      <c r="M229" s="5">
+      <c r="M229" s="6">
         <v>414</v>
       </c>
     </row>
@@ -10113,7 +10127,7 @@
       <c r="L230" s="4">
         <v>1</v>
       </c>
-      <c r="M230" s="5">
+      <c r="M230" s="6">
         <v>462</v>
       </c>
     </row>
@@ -10152,7 +10166,7 @@
       <c r="L231" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M231" s="5">
+      <c r="M231" s="6">
         <v>497</v>
       </c>
     </row>
@@ -10193,7 +10207,7 @@
       <c r="L232" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M232" s="5">
+      <c r="M232" s="6">
         <v>411</v>
       </c>
     </row>
@@ -10232,7 +10246,7 @@
       <c r="L233" s="4">
         <v>1</v>
       </c>
-      <c r="M233" s="5">
+      <c r="M233" s="6">
         <v>434</v>
       </c>
     </row>
@@ -10273,7 +10287,7 @@
       <c r="L234" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M234" s="5">
+      <c r="M234" s="6">
         <v>293</v>
       </c>
     </row>
@@ -10312,7 +10326,7 @@
       <c r="L235" s="4">
         <v>1</v>
       </c>
-      <c r="M235" s="5">
+      <c r="M235" s="6">
         <v>351</v>
       </c>
     </row>
@@ -10353,7 +10367,7 @@
       <c r="L236" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M236" s="5">
+      <c r="M236" s="6">
         <v>424</v>
       </c>
     </row>
@@ -10392,7 +10406,7 @@
       <c r="L237" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M237" s="5">
+      <c r="M237" s="6">
         <v>672</v>
       </c>
     </row>
@@ -10400,39 +10414,39 @@
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
+      <c r="B238" s="7"/>
+      <c r="C238" s="6">
         <v>186</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D238" s="6">
         <v>716</v>
       </c>
       <c r="E238" s="5">
-        <v>4.1319999999999997</v>
-      </c>
-      <c r="F238" s="5">
+        <v>4132</v>
+      </c>
+      <c r="F238" s="6">
         <v>823</v>
       </c>
       <c r="G238" s="5">
-        <v>1.0309999999999999</v>
+        <v>1031</v>
       </c>
       <c r="H238" s="5">
-        <v>1.1850000000000001</v>
-      </c>
-      <c r="I238" s="5">
+        <v>1185</v>
+      </c>
+      <c r="I238" s="6">
         <v>645</v>
       </c>
-      <c r="J238" s="5">
+      <c r="J238" s="6">
         <v>39</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="6">
         <v>5</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="6">
         <v>26</v>
       </c>
       <c r="M238" s="5">
-        <v>8.7880000000000003</v>
+        <v>8788</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -10512,7 +10526,7 @@
         <v>9</v>
       </c>
       <c r="M240" s="5">
-        <v>1.028</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10550,7 +10564,7 @@
       <c r="L241" s="4">
         <v>2</v>
       </c>
-      <c r="M241" s="5">
+      <c r="M241" s="6">
         <v>905</v>
       </c>
     </row>
@@ -10591,7 +10605,7 @@
       <c r="L242" s="4">
         <v>1</v>
       </c>
-      <c r="M242" s="5">
+      <c r="M242" s="6">
         <v>754</v>
       </c>
     </row>
@@ -10630,7 +10644,7 @@
       <c r="L243" s="4">
         <v>1</v>
       </c>
-      <c r="M243" s="5">
+      <c r="M243" s="6">
         <v>571</v>
       </c>
     </row>
@@ -10671,7 +10685,7 @@
       <c r="L244" s="4">
         <v>3</v>
       </c>
-      <c r="M244" s="5">
+      <c r="M244" s="6">
         <v>590</v>
       </c>
     </row>
@@ -10710,7 +10724,7 @@
       <c r="L245" s="4">
         <v>4</v>
       </c>
-      <c r="M245" s="5">
+      <c r="M245" s="6">
         <v>473</v>
       </c>
     </row>
@@ -10751,7 +10765,7 @@
       <c r="L246" s="4">
         <v>4</v>
       </c>
-      <c r="M246" s="5">
+      <c r="M246" s="6">
         <v>573</v>
       </c>
     </row>
@@ -10790,7 +10804,7 @@
       <c r="L247" s="4">
         <v>2</v>
       </c>
-      <c r="M247" s="5">
+      <c r="M247" s="6">
         <v>538</v>
       </c>
     </row>
@@ -10831,7 +10845,7 @@
       <c r="L248" s="4">
         <v>5</v>
       </c>
-      <c r="M248" s="5">
+      <c r="M248" s="6">
         <v>693</v>
       </c>
     </row>
@@ -10870,7 +10884,7 @@
       <c r="L249" s="4">
         <v>2</v>
       </c>
-      <c r="M249" s="5">
+      <c r="M249" s="6">
         <v>634</v>
       </c>
     </row>
@@ -10911,7 +10925,7 @@
       <c r="L250" s="4">
         <v>3</v>
       </c>
-      <c r="M250" s="5">
+      <c r="M250" s="6">
         <v>700</v>
       </c>
     </row>
@@ -10950,7 +10964,7 @@
       <c r="L251" s="4">
         <v>1</v>
       </c>
-      <c r="M251" s="5">
+      <c r="M251" s="6">
         <v>698</v>
       </c>
     </row>
@@ -10991,7 +11005,7 @@
       <c r="L252" s="4">
         <v>2</v>
       </c>
-      <c r="M252" s="5">
+      <c r="M252" s="6">
         <v>780</v>
       </c>
     </row>
@@ -11030,7 +11044,7 @@
       <c r="L253" s="4">
         <v>5</v>
       </c>
-      <c r="M253" s="5">
+      <c r="M253" s="6">
         <v>767</v>
       </c>
     </row>
@@ -11071,7 +11085,7 @@
       <c r="L254" s="4">
         <v>6</v>
       </c>
-      <c r="M254" s="5">
+      <c r="M254" s="6">
         <v>885</v>
       </c>
     </row>
@@ -11110,7 +11124,7 @@
       <c r="L255" s="4">
         <v>2</v>
       </c>
-      <c r="M255" s="5">
+      <c r="M255" s="6">
         <v>829</v>
       </c>
     </row>
@@ -11151,7 +11165,7 @@
       <c r="L256" s="4">
         <v>2</v>
       </c>
-      <c r="M256" s="5">
+      <c r="M256" s="6">
         <v>944</v>
       </c>
     </row>
@@ -11190,7 +11204,7 @@
       <c r="L257" s="4">
         <v>1</v>
       </c>
-      <c r="M257" s="5">
+      <c r="M257" s="6">
         <v>919</v>
       </c>
     </row>
@@ -11231,7 +11245,7 @@
       <c r="L258" s="4">
         <v>2</v>
       </c>
-      <c r="M258" s="5">
+      <c r="M258" s="6">
         <v>734</v>
       </c>
     </row>
@@ -11270,7 +11284,7 @@
       <c r="L259" s="4">
         <v>4</v>
       </c>
-      <c r="M259" s="5">
+      <c r="M259" s="6">
         <v>802</v>
       </c>
     </row>
@@ -11311,7 +11325,7 @@
       <c r="L260" s="4">
         <v>1</v>
       </c>
-      <c r="M260" s="5">
+      <c r="M260" s="6">
         <v>536</v>
       </c>
     </row>
@@ -11350,7 +11364,7 @@
       <c r="L261" s="4">
         <v>3</v>
       </c>
-      <c r="M261" s="5">
+      <c r="M261" s="6">
         <v>634</v>
       </c>
     </row>
@@ -11391,7 +11405,7 @@
       <c r="L262" s="4">
         <v>3</v>
       </c>
-      <c r="M262" s="5">
+      <c r="M262" s="6">
         <v>792</v>
       </c>
     </row>
@@ -11431,46 +11445,46 @@
         <v>2</v>
       </c>
       <c r="M263" s="5">
-        <v>1.22</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
+      <c r="B264" s="7"/>
+      <c r="C264" s="6">
         <v>558</v>
       </c>
       <c r="D264" s="5">
-        <v>1.339</v>
+        <v>1339</v>
       </c>
       <c r="E264" s="5">
-        <v>6.7039999999999997</v>
+        <v>6704</v>
       </c>
       <c r="F264" s="5">
-        <v>1.978</v>
+        <v>1978</v>
       </c>
       <c r="G264" s="5">
-        <v>2.4580000000000002</v>
+        <v>2458</v>
       </c>
       <c r="H264" s="5">
-        <v>3.2530000000000001</v>
+        <v>3253</v>
       </c>
       <c r="I264" s="5">
-        <v>1.5269999999999999</v>
-      </c>
-      <c r="J264" s="5">
+        <v>1527</v>
+      </c>
+      <c r="J264" s="6">
         <v>100</v>
       </c>
-      <c r="K264" s="5">
+      <c r="K264" s="6">
         <v>12</v>
       </c>
-      <c r="L264" s="5">
+      <c r="L264" s="6">
         <v>70</v>
       </c>
       <c r="M264" s="5">
-        <v>17.998999999999999</v>
+        <v>17999</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -11550,7 +11564,7 @@
         <v>15</v>
       </c>
       <c r="M266" s="5">
-        <v>1.464</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11589,7 +11603,7 @@
         <v>2</v>
       </c>
       <c r="M267" s="5">
-        <v>1.3460000000000001</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11629,7 +11643,7 @@
       <c r="L268" s="4">
         <v>2</v>
       </c>
-      <c r="M268" s="5">
+      <c r="M268" s="6">
         <v>995</v>
       </c>
     </row>
@@ -11668,7 +11682,7 @@
       <c r="L269" s="4">
         <v>4</v>
       </c>
-      <c r="M269" s="5">
+      <c r="M269" s="6">
         <v>908</v>
       </c>
     </row>
@@ -11709,7 +11723,7 @@
       <c r="L270" s="4">
         <v>3</v>
       </c>
-      <c r="M270" s="5">
+      <c r="M270" s="6">
         <v>827</v>
       </c>
     </row>
@@ -11748,7 +11762,7 @@
       <c r="L271" s="4">
         <v>3</v>
       </c>
-      <c r="M271" s="5">
+      <c r="M271" s="6">
         <v>830</v>
       </c>
     </row>
@@ -11789,7 +11803,7 @@
       <c r="L272" s="4">
         <v>3</v>
       </c>
-      <c r="M272" s="5">
+      <c r="M272" s="6">
         <v>965</v>
       </c>
     </row>
@@ -11828,7 +11842,7 @@
       <c r="L273" s="4">
         <v>5</v>
       </c>
-      <c r="M273" s="5">
+      <c r="M273" s="6">
         <v>935</v>
       </c>
     </row>
@@ -11870,7 +11884,7 @@
         <v>2</v>
       </c>
       <c r="M274" s="5">
-        <v>1.0660000000000001</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -11909,7 +11923,7 @@
         <v>4</v>
       </c>
       <c r="M275" s="5">
-        <v>1.004</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -11949,7 +11963,7 @@
       <c r="L276" s="4">
         <v>5</v>
       </c>
-      <c r="M276" s="5">
+      <c r="M276" s="6">
         <v>935</v>
       </c>
     </row>
@@ -11988,7 +12002,7 @@
       <c r="L277" s="4">
         <v>3</v>
       </c>
-      <c r="M277" s="5">
+      <c r="M277" s="6">
         <v>938</v>
       </c>
     </row>
@@ -12030,7 +12044,7 @@
         <v>2</v>
       </c>
       <c r="M278" s="5">
-        <v>1.0429999999999999</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -12068,7 +12082,7 @@
       <c r="L279" s="4">
         <v>5</v>
       </c>
-      <c r="M279" s="5">
+      <c r="M279" s="6">
         <v>903</v>
       </c>
     </row>
@@ -12109,7 +12123,7 @@
       <c r="L280" s="4">
         <v>3</v>
       </c>
-      <c r="M280" s="5">
+      <c r="M280" s="6">
         <v>923</v>
       </c>
     </row>
@@ -12148,7 +12162,7 @@
       <c r="L281" s="4">
         <v>4</v>
       </c>
-      <c r="M281" s="5">
+      <c r="M281" s="6">
         <v>840</v>
       </c>
     </row>
@@ -12189,7 +12203,7 @@
       <c r="L282" s="4">
         <v>2</v>
       </c>
-      <c r="M282" s="5">
+      <c r="M282" s="6">
         <v>855</v>
       </c>
     </row>
@@ -12228,7 +12242,7 @@
       <c r="L283" s="4">
         <v>2</v>
       </c>
-      <c r="M283" s="5">
+      <c r="M283" s="6">
         <v>815</v>
       </c>
     </row>
@@ -12269,7 +12283,7 @@
       <c r="L284" s="4">
         <v>4</v>
       </c>
-      <c r="M284" s="5">
+      <c r="M284" s="6">
         <v>634</v>
       </c>
     </row>
@@ -12308,7 +12322,7 @@
       <c r="L285" s="4">
         <v>2</v>
       </c>
-      <c r="M285" s="5">
+      <c r="M285" s="6">
         <v>656</v>
       </c>
     </row>
@@ -12349,7 +12363,7 @@
       <c r="L286" s="4">
         <v>3</v>
       </c>
-      <c r="M286" s="5">
+      <c r="M286" s="6">
         <v>424</v>
       </c>
     </row>
@@ -12388,7 +12402,7 @@
       <c r="L287" s="4">
         <v>4</v>
       </c>
-      <c r="M287" s="5">
+      <c r="M287" s="6">
         <v>497</v>
       </c>
     </row>
@@ -12429,7 +12443,7 @@
       <c r="L288" s="4">
         <v>4</v>
       </c>
-      <c r="M288" s="5">
+      <c r="M288" s="6">
         <v>639</v>
       </c>
     </row>
@@ -12468,7 +12482,7 @@
       <c r="L289" s="4">
         <v>4</v>
       </c>
-      <c r="M289" s="5">
+      <c r="M289" s="6">
         <v>824</v>
       </c>
     </row>
@@ -12476,39 +12490,39 @@
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="5">
+      <c r="B290" s="7"/>
+      <c r="C290" s="6">
         <v>268</v>
       </c>
-      <c r="D290" s="5">
+      <c r="D290" s="6">
         <v>893</v>
       </c>
       <c r="E290" s="5">
-        <v>7.4589999999999996</v>
+        <v>7459</v>
       </c>
       <c r="F290" s="5">
-        <v>2.7530000000000001</v>
+        <v>2753</v>
       </c>
       <c r="G290" s="5">
-        <v>4.0549999999999997</v>
+        <v>4055</v>
       </c>
       <c r="H290" s="5">
-        <v>3.9060000000000001</v>
+        <v>3906</v>
       </c>
       <c r="I290" s="5">
-        <v>1.7330000000000001</v>
-      </c>
-      <c r="J290" s="5">
+        <v>1733</v>
+      </c>
+      <c r="J290" s="6">
         <v>95</v>
       </c>
-      <c r="K290" s="5">
-        <v>14</v>
-      </c>
-      <c r="L290" s="5">
+      <c r="K290" s="6">
+        <v>14</v>
+      </c>
+      <c r="L290" s="6">
         <v>90</v>
       </c>
       <c r="M290" s="5">
-        <v>21.265999999999998</v>
+        <v>21266</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -12569,11 +12583,11 @@
       <c r="F292" s="4">
         <v>1</v>
       </c>
-      <c r="G292" s="4">
-        <v>1.202</v>
-      </c>
-      <c r="H292" s="4">
-        <v>3.0270000000000001</v>
+      <c r="G292" s="9">
+        <v>1202</v>
+      </c>
+      <c r="H292" s="9">
+        <v>3027</v>
       </c>
       <c r="I292" s="4">
         <v>560</v>
@@ -12588,7 +12602,7 @@
         <v>87</v>
       </c>
       <c r="M292" s="5">
-        <v>4.9219999999999997</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12611,8 +12625,8 @@
       <c r="G293" s="4">
         <v>760</v>
       </c>
-      <c r="H293" s="4">
-        <v>2.9750000000000001</v>
+      <c r="H293" s="9">
+        <v>2975</v>
       </c>
       <c r="I293" s="4">
         <v>922</v>
@@ -12627,7 +12641,7 @@
         <v>77</v>
       </c>
       <c r="M293" s="5">
-        <v>4.7960000000000003</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12652,11 +12666,11 @@
       <c r="G294" s="4">
         <v>998</v>
       </c>
-      <c r="H294" s="4">
-        <v>1.35</v>
-      </c>
-      <c r="I294" s="4">
-        <v>1.52</v>
+      <c r="H294" s="9">
+        <v>1350</v>
+      </c>
+      <c r="I294" s="9">
+        <v>1520</v>
       </c>
       <c r="J294" s="4">
         <v>90</v>
@@ -12668,7 +12682,7 @@
         <v>69</v>
       </c>
       <c r="M294" s="5">
-        <v>4.0999999999999996</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -12691,11 +12705,11 @@
       <c r="G295" s="4">
         <v>545</v>
       </c>
-      <c r="H295" s="4">
-        <v>1.046</v>
-      </c>
-      <c r="I295" s="4">
-        <v>1.9319999999999999</v>
+      <c r="H295" s="9">
+        <v>1046</v>
+      </c>
+      <c r="I295" s="9">
+        <v>1932</v>
       </c>
       <c r="J295" s="4">
         <v>146</v>
@@ -12707,7 +12721,7 @@
         <v>43</v>
       </c>
       <c r="M295" s="5">
-        <v>3.8540000000000001</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -12732,11 +12746,11 @@
       <c r="G296" s="4">
         <v>485</v>
       </c>
-      <c r="H296" s="4">
-        <v>1.5249999999999999</v>
-      </c>
-      <c r="I296" s="4">
-        <v>1.3460000000000001</v>
+      <c r="H296" s="9">
+        <v>1525</v>
+      </c>
+      <c r="I296" s="9">
+        <v>1346</v>
       </c>
       <c r="J296" s="4">
         <v>132</v>
@@ -12748,7 +12762,7 @@
         <v>79</v>
       </c>
       <c r="M296" s="5">
-        <v>4.1429999999999998</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -12771,11 +12785,11 @@
       <c r="G297" s="4">
         <v>338</v>
       </c>
-      <c r="H297" s="4">
-        <v>1.1559999999999999</v>
-      </c>
-      <c r="I297" s="4">
-        <v>1.591</v>
+      <c r="H297" s="9">
+        <v>1156</v>
+      </c>
+      <c r="I297" s="9">
+        <v>1591</v>
       </c>
       <c r="J297" s="4">
         <v>160</v>
@@ -12787,7 +12801,7 @@
         <v>93</v>
       </c>
       <c r="M297" s="5">
-        <v>3.9039999999999999</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -12812,11 +12826,11 @@
       <c r="G298" s="4">
         <v>389</v>
       </c>
-      <c r="H298" s="4">
-        <v>1.6379999999999999</v>
-      </c>
-      <c r="I298" s="4">
-        <v>1.333</v>
+      <c r="H298" s="9">
+        <v>1638</v>
+      </c>
+      <c r="I298" s="9">
+        <v>1333</v>
       </c>
       <c r="J298" s="4">
         <v>137</v>
@@ -12828,7 +12842,7 @@
         <v>112</v>
       </c>
       <c r="M298" s="5">
-        <v>4.3979999999999997</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -12851,11 +12865,11 @@
       <c r="G299" s="4">
         <v>375</v>
       </c>
-      <c r="H299" s="4">
-        <v>1.3979999999999999</v>
-      </c>
-      <c r="I299" s="4">
-        <v>1.536</v>
+      <c r="H299" s="9">
+        <v>1398</v>
+      </c>
+      <c r="I299" s="9">
+        <v>1536</v>
       </c>
       <c r="J299" s="4">
         <v>181</v>
@@ -12867,7 +12881,7 @@
         <v>120</v>
       </c>
       <c r="M299" s="5">
-        <v>4.4690000000000003</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -12892,11 +12906,11 @@
       <c r="G300" s="4">
         <v>692</v>
       </c>
-      <c r="H300" s="4">
-        <v>1.91</v>
-      </c>
-      <c r="I300" s="4">
-        <v>1.1930000000000001</v>
+      <c r="H300" s="9">
+        <v>1910</v>
+      </c>
+      <c r="I300" s="9">
+        <v>1193</v>
       </c>
       <c r="J300" s="4">
         <v>173</v>
@@ -12908,7 +12922,7 @@
         <v>158</v>
       </c>
       <c r="M300" s="5">
-        <v>5.077</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -12931,11 +12945,11 @@
       <c r="G301" s="4">
         <v>528</v>
       </c>
-      <c r="H301" s="4">
-        <v>1.7130000000000001</v>
-      </c>
-      <c r="I301" s="4">
-        <v>1.4139999999999999</v>
+      <c r="H301" s="9">
+        <v>1713</v>
+      </c>
+      <c r="I301" s="9">
+        <v>1414</v>
       </c>
       <c r="J301" s="4">
         <v>189</v>
@@ -12947,7 +12961,7 @@
         <v>159</v>
       </c>
       <c r="M301" s="5">
-        <v>5.0289999999999999</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -12972,11 +12986,11 @@
       <c r="G302" s="4">
         <v>620</v>
       </c>
-      <c r="H302" s="4">
-        <v>1.603</v>
-      </c>
-      <c r="I302" s="4">
-        <v>1.0780000000000001</v>
+      <c r="H302" s="9">
+        <v>1603</v>
+      </c>
+      <c r="I302" s="9">
+        <v>1078</v>
       </c>
       <c r="J302" s="4">
         <v>126</v>
@@ -12988,7 +13002,7 @@
         <v>155</v>
       </c>
       <c r="M302" s="5">
-        <v>4.7629999999999999</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -13011,11 +13025,11 @@
       <c r="G303" s="4">
         <v>600</v>
       </c>
-      <c r="H303" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="I303" s="4">
-        <v>1.2130000000000001</v>
+      <c r="H303" s="9">
+        <v>1600</v>
+      </c>
+      <c r="I303" s="9">
+        <v>1213</v>
       </c>
       <c r="J303" s="4">
         <v>115</v>
@@ -13027,7 +13041,7 @@
         <v>128</v>
       </c>
       <c r="M303" s="5">
-        <v>4.8970000000000002</v>
+        <v>4897</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -13052,11 +13066,11 @@
       <c r="G304" s="4">
         <v>708</v>
       </c>
-      <c r="H304" s="4">
-        <v>1.4239999999999999</v>
-      </c>
-      <c r="I304" s="4">
-        <v>1.0289999999999999</v>
+      <c r="H304" s="9">
+        <v>1424</v>
+      </c>
+      <c r="I304" s="9">
+        <v>1029</v>
       </c>
       <c r="J304" s="4">
         <v>116</v>
@@ -13068,7 +13082,7 @@
         <v>203</v>
       </c>
       <c r="M304" s="5">
-        <v>4.6660000000000004</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -13091,11 +13105,11 @@
       <c r="G305" s="4">
         <v>618</v>
       </c>
-      <c r="H305" s="4">
-        <v>1.4790000000000001</v>
-      </c>
-      <c r="I305" s="4">
-        <v>1.0209999999999999</v>
+      <c r="H305" s="9">
+        <v>1479</v>
+      </c>
+      <c r="I305" s="9">
+        <v>1021</v>
       </c>
       <c r="J305" s="4">
         <v>110</v>
@@ -13107,7 +13121,7 @@
         <v>251</v>
       </c>
       <c r="M305" s="5">
-        <v>4.8890000000000002</v>
+        <v>4889</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -13132,11 +13146,11 @@
       <c r="G306" s="4">
         <v>660</v>
       </c>
-      <c r="H306" s="4">
-        <v>1.36</v>
-      </c>
-      <c r="I306" s="4">
-        <v>1.004</v>
+      <c r="H306" s="9">
+        <v>1360</v>
+      </c>
+      <c r="I306" s="9">
+        <v>1004</v>
       </c>
       <c r="J306" s="4">
         <v>126</v>
@@ -13148,7 +13162,7 @@
         <v>245</v>
       </c>
       <c r="M306" s="5">
-        <v>4.6790000000000003</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -13162,8 +13176,8 @@
       <c r="D307" s="4">
         <v>79</v>
       </c>
-      <c r="E307" s="4">
-        <v>1.1859999999999999</v>
+      <c r="E307" s="9">
+        <v>1186</v>
       </c>
       <c r="F307" s="4">
         <v>350</v>
@@ -13171,8 +13185,8 @@
       <c r="G307" s="4">
         <v>505</v>
       </c>
-      <c r="H307" s="4">
-        <v>1.3140000000000001</v>
+      <c r="H307" s="9">
+        <v>1314</v>
       </c>
       <c r="I307" s="4">
         <v>964</v>
@@ -13187,7 +13201,7 @@
         <v>275</v>
       </c>
       <c r="M307" s="5">
-        <v>4.8129999999999997</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -13212,8 +13226,8 @@
       <c r="G308" s="4">
         <v>504</v>
       </c>
-      <c r="H308" s="4">
-        <v>1.2689999999999999</v>
+      <c r="H308" s="9">
+        <v>1269</v>
       </c>
       <c r="I308" s="4">
         <v>893</v>
@@ -13228,7 +13242,7 @@
         <v>282</v>
       </c>
       <c r="M308" s="5">
-        <v>4.2779999999999996</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -13242,8 +13256,8 @@
       <c r="D309" s="4">
         <v>129</v>
       </c>
-      <c r="E309" s="4">
-        <v>1.4059999999999999</v>
+      <c r="E309" s="9">
+        <v>1406</v>
       </c>
       <c r="F309" s="4">
         <v>199</v>
@@ -13251,8 +13265,8 @@
       <c r="G309" s="4">
         <v>416</v>
       </c>
-      <c r="H309" s="4">
-        <v>1.2190000000000001</v>
+      <c r="H309" s="9">
+        <v>1219</v>
       </c>
       <c r="I309" s="4">
         <v>800</v>
@@ -13267,7 +13281,7 @@
         <v>292</v>
       </c>
       <c r="M309" s="5">
-        <v>4.5720000000000001</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
@@ -13308,7 +13322,7 @@
         <v>298</v>
       </c>
       <c r="M310" s="5">
-        <v>3.6869999999999998</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -13322,8 +13336,8 @@
       <c r="D311" s="4">
         <v>142</v>
       </c>
-      <c r="E311" s="4">
-        <v>1.3220000000000001</v>
+      <c r="E311" s="9">
+        <v>1322</v>
       </c>
       <c r="F311" s="4">
         <v>65</v>
@@ -13347,7 +13361,7 @@
         <v>225</v>
       </c>
       <c r="M311" s="5">
-        <v>3.6920000000000002</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
@@ -13388,7 +13402,7 @@
         <v>193</v>
       </c>
       <c r="M312" s="5">
-        <v>2.5299999999999998</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
@@ -13402,8 +13416,8 @@
       <c r="D313" s="4">
         <v>170</v>
       </c>
-      <c r="E313" s="4">
-        <v>1.115</v>
+      <c r="E313" s="9">
+        <v>1115</v>
       </c>
       <c r="F313" s="4">
         <v>27</v>
@@ -13427,7 +13441,7 @@
         <v>167</v>
       </c>
       <c r="M313" s="5">
-        <v>2.6890000000000001</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
@@ -13468,7 +13482,7 @@
         <v>201</v>
       </c>
       <c r="M314" s="5">
-        <v>2.806</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
@@ -13482,8 +13496,8 @@
       <c r="D315" s="4">
         <v>375</v>
       </c>
-      <c r="E315" s="4">
-        <v>1.37</v>
+      <c r="E315" s="9">
+        <v>1370</v>
       </c>
       <c r="F315" s="4">
         <v>9</v>
@@ -13507,46 +13521,46 @@
         <v>164</v>
       </c>
       <c r="M315" s="5">
-        <v>3.1720000000000002</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
-      <c r="C316" s="5">
+      <c r="B316" s="7"/>
+      <c r="C316" s="6">
         <v>659</v>
       </c>
       <c r="D316" s="5">
-        <v>1.69</v>
+        <v>1690</v>
       </c>
       <c r="E316" s="5">
-        <v>15.462999999999999</v>
+        <v>15463</v>
       </c>
       <c r="F316" s="5">
-        <v>6.1289999999999996</v>
+        <v>6129</v>
       </c>
       <c r="G316" s="5">
-        <v>12.760999999999999</v>
+        <v>12761</v>
       </c>
       <c r="H316" s="5">
-        <v>32.517000000000003</v>
+        <v>32517</v>
       </c>
       <c r="I316" s="5">
-        <v>24.951000000000001</v>
+        <v>24951</v>
       </c>
       <c r="J316" s="5">
-        <v>2.2480000000000002</v>
-      </c>
-      <c r="K316" s="5">
+        <v>2248</v>
+      </c>
+      <c r="K316" s="6">
         <v>331</v>
       </c>
       <c r="L316" s="5">
-        <v>4.0759999999999996</v>
+        <v>4076</v>
       </c>
       <c r="M316" s="5">
-        <v>100.825</v>
+        <v>100825</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -13626,7 +13640,7 @@
         <v>11</v>
       </c>
       <c r="M318" s="5">
-        <v>1.0529999999999999</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -13665,7 +13679,7 @@
         <v>3</v>
       </c>
       <c r="M319" s="5">
-        <v>1.0309999999999999</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -13705,7 +13719,7 @@
       <c r="L320" s="4">
         <v>1</v>
       </c>
-      <c r="M320" s="5">
+      <c r="M320" s="6">
         <v>779</v>
       </c>
     </row>
@@ -13744,7 +13758,7 @@
       <c r="L321" s="4">
         <v>1</v>
       </c>
-      <c r="M321" s="5">
+      <c r="M321" s="6">
         <v>666</v>
       </c>
     </row>
@@ -13785,7 +13799,7 @@
       <c r="L322" s="4">
         <v>3</v>
       </c>
-      <c r="M322" s="5">
+      <c r="M322" s="6">
         <v>710</v>
       </c>
     </row>
@@ -13824,7 +13838,7 @@
       <c r="L323" s="4">
         <v>3</v>
       </c>
-      <c r="M323" s="5">
+      <c r="M323" s="6">
         <v>708</v>
       </c>
     </row>
@@ -13865,7 +13879,7 @@
       <c r="L324" s="4">
         <v>2</v>
       </c>
-      <c r="M324" s="5">
+      <c r="M324" s="6">
         <v>824</v>
       </c>
     </row>
@@ -13904,7 +13918,7 @@
       <c r="L325" s="4">
         <v>2</v>
       </c>
-      <c r="M325" s="5">
+      <c r="M325" s="6">
         <v>752</v>
       </c>
     </row>
@@ -13945,7 +13959,7 @@
       <c r="L326" s="4">
         <v>6</v>
       </c>
-      <c r="M326" s="5">
+      <c r="M326" s="6">
         <v>983</v>
       </c>
     </row>
@@ -13984,7 +13998,7 @@
       <c r="L327" s="4">
         <v>7</v>
       </c>
-      <c r="M327" s="5">
+      <c r="M327" s="6">
         <v>894</v>
       </c>
     </row>
@@ -14025,7 +14039,7 @@
       <c r="L328" s="4">
         <v>5</v>
       </c>
-      <c r="M328" s="5">
+      <c r="M328" s="6">
         <v>925</v>
       </c>
     </row>
@@ -14064,7 +14078,7 @@
       <c r="L329" s="4">
         <v>6</v>
       </c>
-      <c r="M329" s="5">
+      <c r="M329" s="6">
         <v>860</v>
       </c>
     </row>
@@ -14105,7 +14119,7 @@
       <c r="L330" s="4">
         <v>4</v>
       </c>
-      <c r="M330" s="5">
+      <c r="M330" s="6">
         <v>939</v>
       </c>
     </row>
@@ -14144,7 +14158,7 @@
       <c r="L331" s="4">
         <v>7</v>
       </c>
-      <c r="M331" s="5">
+      <c r="M331" s="6">
         <v>957</v>
       </c>
     </row>
@@ -14185,7 +14199,7 @@
       <c r="L332" s="4">
         <v>9</v>
       </c>
-      <c r="M332" s="5">
+      <c r="M332" s="6">
         <v>943</v>
       </c>
     </row>
@@ -14224,7 +14238,7 @@
       <c r="L333" s="4">
         <v>12</v>
       </c>
-      <c r="M333" s="5">
+      <c r="M333" s="6">
         <v>968</v>
       </c>
     </row>
@@ -14266,7 +14280,7 @@
         <v>13</v>
       </c>
       <c r="M334" s="5">
-        <v>1.018</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -14304,7 +14318,7 @@
       <c r="L335" s="4">
         <v>9</v>
       </c>
-      <c r="M335" s="5">
+      <c r="M335" s="6">
         <v>964</v>
       </c>
     </row>
@@ -14345,7 +14359,7 @@
       <c r="L336" s="4">
         <v>9</v>
       </c>
-      <c r="M336" s="5">
+      <c r="M336" s="6">
         <v>870</v>
       </c>
     </row>
@@ -14385,7 +14399,7 @@
         <v>18</v>
       </c>
       <c r="M337" s="5">
-        <v>1.0229999999999999</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -14425,7 +14439,7 @@
       <c r="L338" s="4">
         <v>11</v>
       </c>
-      <c r="M338" s="5">
+      <c r="M338" s="6">
         <v>636</v>
       </c>
     </row>
@@ -14464,7 +14478,7 @@
       <c r="L339" s="4">
         <v>9</v>
       </c>
-      <c r="M339" s="5">
+      <c r="M339" s="6">
         <v>719</v>
       </c>
     </row>
@@ -14505,7 +14519,7 @@
       <c r="L340" s="4">
         <v>11</v>
       </c>
-      <c r="M340" s="5">
+      <c r="M340" s="6">
         <v>781</v>
       </c>
     </row>
@@ -14545,46 +14559,46 @@
         <v>4</v>
       </c>
       <c r="M341" s="5">
-        <v>1.246</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B342" s="6"/>
-      <c r="C342" s="5">
+      <c r="B342" s="7"/>
+      <c r="C342" s="6">
         <v>351</v>
       </c>
       <c r="D342" s="5">
-        <v>1.0389999999999999</v>
+        <v>1039</v>
       </c>
       <c r="E342" s="5">
-        <v>7.3949999999999996</v>
+        <v>7395</v>
       </c>
       <c r="F342" s="5">
-        <v>1.847</v>
+        <v>1847</v>
       </c>
       <c r="G342" s="5">
-        <v>3.319</v>
+        <v>3319</v>
       </c>
       <c r="H342" s="5">
-        <v>4.6479999999999997</v>
+        <v>4648</v>
       </c>
       <c r="I342" s="5">
-        <v>2.3279999999999998</v>
-      </c>
-      <c r="J342" s="5">
+        <v>2328</v>
+      </c>
+      <c r="J342" s="6">
         <v>142</v>
       </c>
-      <c r="K342" s="5">
-        <v>14</v>
-      </c>
-      <c r="L342" s="5">
+      <c r="K342" s="6">
+        <v>14</v>
+      </c>
+      <c r="L342" s="6">
         <v>166</v>
       </c>
       <c r="M342" s="5">
-        <v>21.248999999999999</v>
+        <v>21249</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -14645,11 +14659,11 @@
       <c r="F344" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G344" s="4">
-        <v>2.0920000000000001</v>
-      </c>
-      <c r="H344" s="4">
-        <v>4.1970000000000001</v>
+      <c r="G344" s="9">
+        <v>2092</v>
+      </c>
+      <c r="H344" s="9">
+        <v>4197</v>
       </c>
       <c r="I344" s="4">
         <v>733</v>
@@ -14664,7 +14678,7 @@
         <v>53</v>
       </c>
       <c r="M344" s="5">
-        <v>7.1150000000000002</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -14684,14 +14698,14 @@
       <c r="F345" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G345" s="4">
-        <v>1.421</v>
-      </c>
-      <c r="H345" s="4">
-        <v>4.2919999999999998</v>
-      </c>
-      <c r="I345" s="4">
-        <v>1.3029999999999999</v>
+      <c r="G345" s="9">
+        <v>1421</v>
+      </c>
+      <c r="H345" s="9">
+        <v>4292</v>
+      </c>
+      <c r="I345" s="9">
+        <v>1303</v>
       </c>
       <c r="J345" s="4">
         <v>8</v>
@@ -14703,7 +14717,7 @@
         <v>21</v>
       </c>
       <c r="M345" s="5">
-        <v>7.0880000000000001</v>
+        <v>7088</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -14725,14 +14739,14 @@
       <c r="F346" s="4">
         <v>29</v>
       </c>
-      <c r="G346" s="4">
-        <v>1.556</v>
-      </c>
-      <c r="H346" s="4">
-        <v>1.623</v>
-      </c>
-      <c r="I346" s="4">
-        <v>1.76</v>
+      <c r="G346" s="9">
+        <v>1556</v>
+      </c>
+      <c r="H346" s="9">
+        <v>1623</v>
+      </c>
+      <c r="I346" s="9">
+        <v>1760</v>
       </c>
       <c r="J346" s="4">
         <v>111</v>
@@ -14744,7 +14758,7 @@
         <v>22</v>
       </c>
       <c r="M346" s="5">
-        <v>5.1260000000000003</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
@@ -14764,14 +14778,14 @@
       <c r="F347" s="4">
         <v>40</v>
       </c>
-      <c r="G347" s="4">
-        <v>1.1519999999999999</v>
-      </c>
-      <c r="H347" s="4">
-        <v>1.1970000000000001</v>
-      </c>
-      <c r="I347" s="4">
-        <v>2.3380000000000001</v>
+      <c r="G347" s="9">
+        <v>1152</v>
+      </c>
+      <c r="H347" s="9">
+        <v>1197</v>
+      </c>
+      <c r="I347" s="9">
+        <v>2338</v>
       </c>
       <c r="J347" s="4">
         <v>154</v>
@@ -14783,7 +14797,7 @@
         <v>17</v>
       </c>
       <c r="M347" s="5">
-        <v>5.0460000000000003</v>
+        <v>5046</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
@@ -14802,17 +14816,17 @@
       <c r="E348" s="4">
         <v>17</v>
       </c>
-      <c r="F348" s="4">
-        <v>1.0620000000000001</v>
+      <c r="F348" s="9">
+        <v>1062</v>
       </c>
       <c r="G348" s="4">
         <v>629</v>
       </c>
-      <c r="H348" s="4">
-        <v>1.548</v>
-      </c>
-      <c r="I348" s="4">
-        <v>1.7110000000000001</v>
+      <c r="H348" s="9">
+        <v>1548</v>
+      </c>
+      <c r="I348" s="9">
+        <v>1711</v>
       </c>
       <c r="J348" s="4">
         <v>199</v>
@@ -14824,7 +14838,7 @@
         <v>27</v>
       </c>
       <c r="M348" s="5">
-        <v>5.2409999999999997</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
@@ -14841,17 +14855,17 @@
       <c r="E349" s="4">
         <v>85</v>
       </c>
-      <c r="F349" s="4">
-        <v>1.048</v>
+      <c r="F349" s="9">
+        <v>1048</v>
       </c>
       <c r="G349" s="4">
         <v>458</v>
       </c>
-      <c r="H349" s="4">
-        <v>1.2929999999999999</v>
-      </c>
-      <c r="I349" s="4">
-        <v>1.96</v>
+      <c r="H349" s="9">
+        <v>1293</v>
+      </c>
+      <c r="I349" s="9">
+        <v>1960</v>
       </c>
       <c r="J349" s="4">
         <v>193</v>
@@ -14863,7 +14877,7 @@
         <v>23</v>
       </c>
       <c r="M349" s="5">
-        <v>5.2030000000000003</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
@@ -14882,17 +14896,17 @@
       <c r="E350" s="4">
         <v>494</v>
       </c>
-      <c r="F350" s="4">
-        <v>1.1439999999999999</v>
+      <c r="F350" s="9">
+        <v>1144</v>
       </c>
       <c r="G350" s="4">
         <v>501</v>
       </c>
-      <c r="H350" s="4">
-        <v>1.6879999999999999</v>
-      </c>
-      <c r="I350" s="4">
-        <v>1.518</v>
+      <c r="H350" s="9">
+        <v>1688</v>
+      </c>
+      <c r="I350" s="9">
+        <v>1518</v>
       </c>
       <c r="J350" s="4">
         <v>246</v>
@@ -14904,7 +14918,7 @@
         <v>29</v>
       </c>
       <c r="M350" s="5">
-        <v>5.6790000000000003</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
@@ -14927,11 +14941,11 @@
       <c r="G351" s="4">
         <v>458</v>
       </c>
-      <c r="H351" s="4">
-        <v>1.49</v>
-      </c>
-      <c r="I351" s="4">
-        <v>1.468</v>
+      <c r="H351" s="9">
+        <v>1490</v>
+      </c>
+      <c r="I351" s="9">
+        <v>1468</v>
       </c>
       <c r="J351" s="4">
         <v>173</v>
@@ -14943,7 +14957,7 @@
         <v>24</v>
       </c>
       <c r="M351" s="5">
-        <v>5.66</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
@@ -14959,8 +14973,8 @@
       <c r="D352" s="4">
         <v>26</v>
       </c>
-      <c r="E352" s="4">
-        <v>1.069</v>
+      <c r="E352" s="9">
+        <v>1069</v>
       </c>
       <c r="F352" s="4">
         <v>843</v>
@@ -14968,11 +14982,11 @@
       <c r="G352" s="4">
         <v>865</v>
       </c>
-      <c r="H352" s="4">
-        <v>1.657</v>
-      </c>
-      <c r="I352" s="4">
-        <v>1.329</v>
+      <c r="H352" s="9">
+        <v>1657</v>
+      </c>
+      <c r="I352" s="9">
+        <v>1329</v>
       </c>
       <c r="J352" s="4">
         <v>258</v>
@@ -14984,7 +14998,7 @@
         <v>26</v>
       </c>
       <c r="M352" s="5">
-        <v>6.125</v>
+        <v>6125</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
@@ -14998,8 +15012,8 @@
       <c r="D353" s="4">
         <v>106</v>
       </c>
-      <c r="E353" s="4">
-        <v>1.6379999999999999</v>
+      <c r="E353" s="9">
+        <v>1638</v>
       </c>
       <c r="F353" s="4">
         <v>691</v>
@@ -15007,11 +15021,11 @@
       <c r="G353" s="4">
         <v>722</v>
       </c>
-      <c r="H353" s="4">
-        <v>1.5669999999999999</v>
-      </c>
-      <c r="I353" s="4">
-        <v>1.2889999999999999</v>
+      <c r="H353" s="9">
+        <v>1567</v>
+      </c>
+      <c r="I353" s="9">
+        <v>1289</v>
       </c>
       <c r="J353" s="4">
         <v>187</v>
@@ -15023,7 +15037,7 @@
         <v>31</v>
       </c>
       <c r="M353" s="5">
-        <v>6.282</v>
+        <v>6282</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
@@ -15039,8 +15053,8 @@
       <c r="D354" s="4">
         <v>17</v>
       </c>
-      <c r="E354" s="4">
-        <v>1.212</v>
+      <c r="E354" s="9">
+        <v>1212</v>
       </c>
       <c r="F354" s="4">
         <v>818</v>
@@ -15048,11 +15062,11 @@
       <c r="G354" s="4">
         <v>738</v>
       </c>
-      <c r="H354" s="4">
-        <v>1.363</v>
-      </c>
-      <c r="I354" s="4">
-        <v>1.155</v>
+      <c r="H354" s="9">
+        <v>1363</v>
+      </c>
+      <c r="I354" s="9">
+        <v>1155</v>
       </c>
       <c r="J354" s="4">
         <v>149</v>
@@ -15064,7 +15078,7 @@
         <v>34</v>
       </c>
       <c r="M354" s="5">
-        <v>5.5170000000000003</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
@@ -15078,8 +15092,8 @@
       <c r="D355" s="4">
         <v>96</v>
       </c>
-      <c r="E355" s="4">
-        <v>1.6819999999999999</v>
+      <c r="E355" s="9">
+        <v>1682</v>
       </c>
       <c r="F355" s="4">
         <v>787</v>
@@ -15087,8 +15101,8 @@
       <c r="G355" s="4">
         <v>678</v>
       </c>
-      <c r="H355" s="4">
-        <v>1.2190000000000001</v>
+      <c r="H355" s="9">
+        <v>1219</v>
       </c>
       <c r="I355" s="4">
         <v>954</v>
@@ -15103,7 +15117,7 @@
         <v>31</v>
       </c>
       <c r="M355" s="5">
-        <v>5.6029999999999998</v>
+        <v>5603</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
@@ -15119,8 +15133,8 @@
       <c r="D356" s="4">
         <v>26</v>
       </c>
-      <c r="E356" s="4">
-        <v>1.2589999999999999</v>
+      <c r="E356" s="9">
+        <v>1259</v>
       </c>
       <c r="F356" s="4">
         <v>854</v>
@@ -15128,11 +15142,11 @@
       <c r="G356" s="4">
         <v>780</v>
       </c>
-      <c r="H356" s="4">
-        <v>1.0329999999999999</v>
-      </c>
-      <c r="I356" s="4">
-        <v>1.0009999999999999</v>
+      <c r="H356" s="9">
+        <v>1033</v>
+      </c>
+      <c r="I356" s="9">
+        <v>1001</v>
       </c>
       <c r="J356" s="4">
         <v>105</v>
@@ -15144,7 +15158,7 @@
         <v>36</v>
       </c>
       <c r="M356" s="5">
-        <v>5.1319999999999997</v>
+        <v>5132</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
@@ -15158,8 +15172,8 @@
       <c r="D357" s="4">
         <v>138</v>
       </c>
-      <c r="E357" s="4">
-        <v>2.0270000000000001</v>
+      <c r="E357" s="9">
+        <v>2027</v>
       </c>
       <c r="F357" s="4">
         <v>718</v>
@@ -15183,7 +15197,7 @@
         <v>35</v>
       </c>
       <c r="M357" s="5">
-        <v>5.3710000000000004</v>
+        <v>5371</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
@@ -15199,8 +15213,8 @@
       <c r="D358" s="4">
         <v>39</v>
       </c>
-      <c r="E358" s="4">
-        <v>1.448</v>
+      <c r="E358" s="9">
+        <v>1448</v>
       </c>
       <c r="F358" s="4">
         <v>696</v>
@@ -15224,7 +15238,7 @@
         <v>56</v>
       </c>
       <c r="M358" s="5">
-        <v>4.7519999999999998</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
@@ -15238,8 +15252,8 @@
       <c r="D359" s="4">
         <v>198</v>
       </c>
-      <c r="E359" s="4">
-        <v>2.4300000000000002</v>
+      <c r="E359" s="9">
+        <v>2430</v>
       </c>
       <c r="F359" s="4">
         <v>404</v>
@@ -15263,7 +15277,7 @@
         <v>48</v>
       </c>
       <c r="M359" s="5">
-        <v>4.8550000000000004</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
@@ -15279,8 +15293,8 @@
       <c r="D360" s="4">
         <v>62</v>
       </c>
-      <c r="E360" s="4">
-        <v>1.9410000000000001</v>
+      <c r="E360" s="9">
+        <v>1941</v>
       </c>
       <c r="F360" s="4">
         <v>416</v>
@@ -15304,7 +15318,7 @@
         <v>65</v>
       </c>
       <c r="M360" s="5">
-        <v>4.5910000000000002</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
@@ -15318,8 +15332,8 @@
       <c r="D361" s="4">
         <v>286</v>
       </c>
-      <c r="E361" s="4">
-        <v>2.9830000000000001</v>
+      <c r="E361" s="9">
+        <v>2983</v>
       </c>
       <c r="F361" s="4">
         <v>209</v>
@@ -15343,7 +15357,7 @@
         <v>65</v>
       </c>
       <c r="M361" s="5">
-        <v>4.952</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
@@ -15359,8 +15373,8 @@
       <c r="D362" s="4">
         <v>86</v>
       </c>
-      <c r="E362" s="4">
-        <v>2.0739999999999998</v>
+      <c r="E362" s="9">
+        <v>2074</v>
       </c>
       <c r="F362" s="4">
         <v>176</v>
@@ -15384,7 +15398,7 @@
         <v>64</v>
       </c>
       <c r="M362" s="5">
-        <v>3.9340000000000002</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
@@ -15398,8 +15412,8 @@
       <c r="D363" s="4">
         <v>416</v>
       </c>
-      <c r="E363" s="4">
-        <v>2.8959999999999999</v>
+      <c r="E363" s="9">
+        <v>2896</v>
       </c>
       <c r="F363" s="4">
         <v>68</v>
@@ -15423,7 +15437,7 @@
         <v>51</v>
       </c>
       <c r="M363" s="5">
-        <v>4.415</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
@@ -15439,8 +15453,8 @@
       <c r="D364" s="4">
         <v>98</v>
       </c>
-      <c r="E364" s="4">
-        <v>1.758</v>
+      <c r="E364" s="9">
+        <v>1758</v>
       </c>
       <c r="F364" s="4">
         <v>50</v>
@@ -15464,7 +15478,7 @@
         <v>43</v>
       </c>
       <c r="M364" s="5">
-        <v>2.819</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
@@ -15478,8 +15492,8 @@
       <c r="D365" s="4">
         <v>526</v>
       </c>
-      <c r="E365" s="4">
-        <v>1.9730000000000001</v>
+      <c r="E365" s="9">
+        <v>1973</v>
       </c>
       <c r="F365" s="4">
         <v>17</v>
@@ -15503,7 +15517,7 @@
         <v>50</v>
       </c>
       <c r="M365" s="5">
-        <v>3.24</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
@@ -15519,8 +15533,8 @@
       <c r="D366" s="4">
         <v>411</v>
       </c>
-      <c r="E366" s="4">
-        <v>1.909</v>
+      <c r="E366" s="9">
+        <v>1909</v>
       </c>
       <c r="F366" s="4">
         <v>19</v>
@@ -15544,7 +15558,7 @@
         <v>54</v>
       </c>
       <c r="M366" s="5">
-        <v>3.1930000000000001</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
@@ -15555,11 +15569,11 @@
       <c r="C367" s="4">
         <v>748</v>
       </c>
-      <c r="D367" s="4">
-        <v>1.677</v>
-      </c>
-      <c r="E367" s="4">
-        <v>2.2320000000000002</v>
+      <c r="D367" s="9">
+        <v>1677</v>
+      </c>
+      <c r="E367" s="9">
+        <v>2232</v>
       </c>
       <c r="F367" s="4">
         <v>4</v>
@@ -15583,46 +15597,46 @@
         <v>48</v>
       </c>
       <c r="M367" s="5">
-        <v>4.9880000000000004</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B368" s="6"/>
+      <c r="B368" s="7"/>
       <c r="C368" s="5">
-        <v>1.5669999999999999</v>
+        <v>1567</v>
       </c>
       <c r="D368" s="5">
-        <v>4.6289999999999996</v>
+        <v>4629</v>
       </c>
       <c r="E368" s="5">
-        <v>32.161999999999999</v>
+        <v>32162</v>
       </c>
       <c r="F368" s="5">
-        <v>11.085000000000001</v>
+        <v>11085</v>
       </c>
       <c r="G368" s="5">
-        <v>16.061</v>
+        <v>16061</v>
       </c>
       <c r="H368" s="5">
-        <v>30.027999999999999</v>
+        <v>30028</v>
       </c>
       <c r="I368" s="5">
-        <v>23.03</v>
+        <v>23030</v>
       </c>
       <c r="J368" s="5">
-        <v>2.165</v>
-      </c>
-      <c r="K368" s="5">
+        <v>2165</v>
+      </c>
+      <c r="K368" s="6">
         <v>247</v>
       </c>
-      <c r="L368" s="5">
+      <c r="L368" s="6">
         <v>953</v>
       </c>
       <c r="M368" s="5">
-        <v>121.92700000000001</v>
+        <v>121927</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -15683,11 +15697,11 @@
       <c r="F370" s="4">
         <v>2</v>
       </c>
-      <c r="G370" s="4">
-        <v>1.762</v>
-      </c>
-      <c r="H370" s="4">
-        <v>3.5630000000000002</v>
+      <c r="G370" s="9">
+        <v>1762</v>
+      </c>
+      <c r="H370" s="9">
+        <v>3563</v>
       </c>
       <c r="I370" s="4">
         <v>613</v>
@@ -15702,7 +15716,7 @@
         <v>39</v>
       </c>
       <c r="M370" s="5">
-        <v>6.0289999999999999</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
@@ -15722,11 +15736,11 @@
       <c r="F371" s="4">
         <v>4</v>
       </c>
-      <c r="G371" s="4">
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="H371" s="4">
-        <v>3.3079999999999998</v>
+      <c r="G371" s="9">
+        <v>1245</v>
+      </c>
+      <c r="H371" s="9">
+        <v>3308</v>
       </c>
       <c r="I371" s="4">
         <v>988</v>
@@ -15741,7 +15755,7 @@
         <v>7</v>
       </c>
       <c r="M371" s="5">
-        <v>5.625</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
@@ -15763,14 +15777,14 @@
       <c r="F372" s="4">
         <v>46</v>
       </c>
-      <c r="G372" s="4">
-        <v>1.3480000000000001</v>
-      </c>
-      <c r="H372" s="4">
-        <v>1.417</v>
-      </c>
-      <c r="I372" s="4">
-        <v>1.399</v>
+      <c r="G372" s="9">
+        <v>1348</v>
+      </c>
+      <c r="H372" s="9">
+        <v>1417</v>
+      </c>
+      <c r="I372" s="9">
+        <v>1399</v>
       </c>
       <c r="J372" s="4">
         <v>87</v>
@@ -15782,7 +15796,7 @@
         <v>12</v>
       </c>
       <c r="M372" s="5">
-        <v>4.3620000000000001</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
@@ -15805,11 +15819,11 @@
       <c r="G373" s="4">
         <v>934</v>
       </c>
-      <c r="H373" s="4">
-        <v>1.0780000000000001</v>
-      </c>
-      <c r="I373" s="4">
-        <v>1.7450000000000001</v>
+      <c r="H373" s="9">
+        <v>1078</v>
+      </c>
+      <c r="I373" s="9">
+        <v>1745</v>
       </c>
       <c r="J373" s="4">
         <v>117</v>
@@ -15821,7 +15835,7 @@
         <v>13</v>
       </c>
       <c r="M373" s="5">
-        <v>4.1059999999999999</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
@@ -15846,11 +15860,11 @@
       <c r="G374" s="4">
         <v>566</v>
       </c>
-      <c r="H374" s="4">
-        <v>1.45</v>
-      </c>
-      <c r="I374" s="4">
-        <v>1.3009999999999999</v>
+      <c r="H374" s="9">
+        <v>1450</v>
+      </c>
+      <c r="I374" s="9">
+        <v>1301</v>
       </c>
       <c r="J374" s="4">
         <v>105</v>
@@ -15862,7 +15876,7 @@
         <v>13</v>
       </c>
       <c r="M374" s="5">
-        <v>4.327</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
@@ -15885,11 +15899,11 @@
       <c r="G375" s="4">
         <v>367</v>
       </c>
-      <c r="H375" s="4">
-        <v>1.091</v>
-      </c>
-      <c r="I375" s="4">
-        <v>1.353</v>
+      <c r="H375" s="9">
+        <v>1091</v>
+      </c>
+      <c r="I375" s="9">
+        <v>1353</v>
       </c>
       <c r="J375" s="4">
         <v>143</v>
@@ -15901,7 +15915,7 @@
         <v>15</v>
       </c>
       <c r="M375" s="5">
-        <v>3.9510000000000001</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
@@ -15926,11 +15940,11 @@
       <c r="G376" s="4">
         <v>446</v>
       </c>
-      <c r="H376" s="4">
-        <v>1.4259999999999999</v>
-      </c>
-      <c r="I376" s="4">
-        <v>1.038</v>
+      <c r="H376" s="9">
+        <v>1426</v>
+      </c>
+      <c r="I376" s="9">
+        <v>1038</v>
       </c>
       <c r="J376" s="4">
         <v>126</v>
@@ -15942,7 +15956,7 @@
         <v>15</v>
       </c>
       <c r="M376" s="5">
-        <v>4.2409999999999997</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
@@ -15965,11 +15979,11 @@
       <c r="G377" s="4">
         <v>442</v>
       </c>
-      <c r="H377" s="4">
-        <v>1.335</v>
-      </c>
-      <c r="I377" s="4">
-        <v>1.0209999999999999</v>
+      <c r="H377" s="9">
+        <v>1335</v>
+      </c>
+      <c r="I377" s="9">
+        <v>1021</v>
       </c>
       <c r="J377" s="4">
         <v>105</v>
@@ -15981,7 +15995,7 @@
         <v>18</v>
       </c>
       <c r="M377" s="5">
-        <v>4.2619999999999996</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
@@ -16006,8 +16020,8 @@
       <c r="G378" s="4">
         <v>695</v>
       </c>
-      <c r="H378" s="4">
-        <v>1.484</v>
+      <c r="H378" s="9">
+        <v>1484</v>
       </c>
       <c r="I378" s="4">
         <v>895</v>
@@ -16022,7 +16036,7 @@
         <v>24</v>
       </c>
       <c r="M378" s="5">
-        <v>4.5220000000000002</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
@@ -16045,8 +16059,8 @@
       <c r="G379" s="4">
         <v>637</v>
       </c>
-      <c r="H379" s="4">
-        <v>1.3260000000000001</v>
+      <c r="H379" s="9">
+        <v>1326</v>
       </c>
       <c r="I379" s="4">
         <v>892</v>
@@ -16061,7 +16075,7 @@
         <v>16</v>
       </c>
       <c r="M379" s="5">
-        <v>4.556</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
@@ -16086,8 +16100,8 @@
       <c r="G380" s="4">
         <v>622</v>
       </c>
-      <c r="H380" s="4">
-        <v>1.3260000000000001</v>
+      <c r="H380" s="9">
+        <v>1326</v>
       </c>
       <c r="I380" s="4">
         <v>741</v>
@@ -16102,7 +16116,7 @@
         <v>17</v>
       </c>
       <c r="M380" s="5">
-        <v>4.3079999999999998</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
@@ -16116,8 +16130,8 @@
       <c r="D381" s="4">
         <v>107</v>
       </c>
-      <c r="E381" s="4">
-        <v>1.05</v>
+      <c r="E381" s="9">
+        <v>1050</v>
       </c>
       <c r="F381" s="4">
         <v>585</v>
@@ -16125,8 +16139,8 @@
       <c r="G381" s="4">
         <v>611</v>
       </c>
-      <c r="H381" s="4">
-        <v>1.127</v>
+      <c r="H381" s="9">
+        <v>1127</v>
       </c>
       <c r="I381" s="4">
         <v>606</v>
@@ -16141,7 +16155,7 @@
         <v>23</v>
       </c>
       <c r="M381" s="5">
-        <v>4.2149999999999999</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
@@ -16166,8 +16180,8 @@
       <c r="G382" s="4">
         <v>683</v>
       </c>
-      <c r="H382" s="4">
-        <v>1.014</v>
+      <c r="H382" s="9">
+        <v>1014</v>
       </c>
       <c r="I382" s="4">
         <v>594</v>
@@ -16182,7 +16196,7 @@
         <v>24</v>
       </c>
       <c r="M382" s="5">
-        <v>3.988</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
@@ -16196,8 +16210,8 @@
       <c r="D383" s="4">
         <v>115</v>
       </c>
-      <c r="E383" s="4">
-        <v>1.2589999999999999</v>
+      <c r="E383" s="9">
+        <v>1259</v>
       </c>
       <c r="F383" s="4">
         <v>519</v>
@@ -16221,7 +16235,7 @@
         <v>18</v>
       </c>
       <c r="M383" s="5">
-        <v>3.8919999999999999</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
@@ -16237,8 +16251,8 @@
       <c r="D384" s="4">
         <v>33</v>
       </c>
-      <c r="E384" s="4">
-        <v>1.0149999999999999</v>
+      <c r="E384" s="9">
+        <v>1015</v>
       </c>
       <c r="F384" s="4">
         <v>708</v>
@@ -16262,7 +16276,7 @@
         <v>16</v>
       </c>
       <c r="M384" s="5">
-        <v>3.6760000000000002</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
@@ -16276,8 +16290,8 @@
       <c r="D385" s="4">
         <v>163</v>
       </c>
-      <c r="E385" s="4">
-        <v>1.665</v>
+      <c r="E385" s="9">
+        <v>1665</v>
       </c>
       <c r="F385" s="4">
         <v>465</v>
@@ -16301,7 +16315,7 @@
         <v>25</v>
       </c>
       <c r="M385" s="5">
-        <v>3.8359999999999999</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
@@ -16317,8 +16331,8 @@
       <c r="D386" s="4">
         <v>44</v>
       </c>
-      <c r="E386" s="4">
-        <v>1.411</v>
+      <c r="E386" s="9">
+        <v>1411</v>
       </c>
       <c r="F386" s="4">
         <v>456</v>
@@ -16342,7 +16356,7 @@
         <v>33</v>
       </c>
       <c r="M386" s="5">
-        <v>3.5230000000000001</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
@@ -16356,8 +16370,8 @@
       <c r="D387" s="4">
         <v>224</v>
       </c>
-      <c r="E387" s="4">
-        <v>1.9570000000000001</v>
+      <c r="E387" s="9">
+        <v>1957</v>
       </c>
       <c r="F387" s="4">
         <v>234</v>
@@ -16381,7 +16395,7 @@
         <v>25</v>
       </c>
       <c r="M387" s="5">
-        <v>3.6080000000000001</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
@@ -16397,8 +16411,8 @@
       <c r="D388" s="4">
         <v>87</v>
       </c>
-      <c r="E388" s="4">
-        <v>1.47</v>
+      <c r="E388" s="9">
+        <v>1470</v>
       </c>
       <c r="F388" s="4">
         <v>186</v>
@@ -16422,7 +16436,7 @@
         <v>39</v>
       </c>
       <c r="M388" s="5">
-        <v>2.931</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
@@ -16436,8 +16450,8 @@
       <c r="D389" s="4">
         <v>346</v>
       </c>
-      <c r="E389" s="4">
-        <v>1.91</v>
+      <c r="E389" s="9">
+        <v>1910</v>
       </c>
       <c r="F389" s="4">
         <v>86</v>
@@ -16461,7 +16475,7 @@
         <v>26</v>
       </c>
       <c r="M389" s="5">
-        <v>3.238</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
@@ -16477,8 +16491,8 @@
       <c r="D390" s="4">
         <v>93</v>
       </c>
-      <c r="E390" s="4">
-        <v>1.1870000000000001</v>
+      <c r="E390" s="9">
+        <v>1187</v>
       </c>
       <c r="F390" s="4">
         <v>64</v>
@@ -16502,7 +16516,7 @@
         <v>23</v>
       </c>
       <c r="M390" s="5">
-        <v>1.9850000000000001</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
@@ -16516,8 +16530,8 @@
       <c r="D391" s="4">
         <v>405</v>
       </c>
-      <c r="E391" s="4">
-        <v>1.3819999999999999</v>
+      <c r="E391" s="9">
+        <v>1382</v>
       </c>
       <c r="F391" s="4">
         <v>16</v>
@@ -16541,7 +16555,7 @@
         <v>16</v>
       </c>
       <c r="M391" s="5">
-        <v>2.375</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
@@ -16557,8 +16571,8 @@
       <c r="D392" s="4">
         <v>317</v>
       </c>
-      <c r="E392" s="4">
-        <v>1.4690000000000001</v>
+      <c r="E392" s="9">
+        <v>1469</v>
       </c>
       <c r="F392" s="4">
         <v>26</v>
@@ -16582,7 +16596,7 @@
         <v>26</v>
       </c>
       <c r="M392" s="5">
-        <v>2.3490000000000002</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
@@ -16593,11 +16607,11 @@
       <c r="C393" s="4">
         <v>568</v>
       </c>
-      <c r="D393" s="4">
-        <v>1.1020000000000001</v>
-      </c>
-      <c r="E393" s="4">
-        <v>1.7230000000000001</v>
+      <c r="D393" s="9">
+        <v>1102</v>
+      </c>
+      <c r="E393" s="9">
+        <v>1723</v>
       </c>
       <c r="F393" s="4">
         <v>10</v>
@@ -16621,46 +16635,46 @@
         <v>25</v>
       </c>
       <c r="M393" s="5">
-        <v>3.6360000000000001</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B394" s="6"/>
+      <c r="B394" s="7"/>
       <c r="C394" s="5">
-        <v>1.4119999999999999</v>
+        <v>1412</v>
       </c>
       <c r="D394" s="5">
-        <v>3.65</v>
+        <v>3650</v>
       </c>
       <c r="E394" s="5">
-        <v>21.632000000000001</v>
+        <v>21632</v>
       </c>
       <c r="F394" s="5">
-        <v>9.2720000000000002</v>
+        <v>9272</v>
       </c>
       <c r="G394" s="5">
-        <v>13.651999999999999</v>
+        <v>13652</v>
       </c>
       <c r="H394" s="5">
-        <v>25.823</v>
+        <v>25823</v>
       </c>
       <c r="I394" s="5">
-        <v>16.119</v>
+        <v>16119</v>
       </c>
       <c r="J394" s="5">
-        <v>1.3380000000000001</v>
-      </c>
-      <c r="K394" s="5">
+        <v>1338</v>
+      </c>
+      <c r="K394" s="6">
         <v>135</v>
       </c>
-      <c r="L394" s="5">
+      <c r="L394" s="6">
         <v>508</v>
       </c>
       <c r="M394" s="5">
-        <v>93.540999999999997</v>
+        <v>93541</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -16739,7 +16753,7 @@
       <c r="L396" s="4">
         <v>8</v>
       </c>
-      <c r="M396" s="5">
+      <c r="M396" s="6">
         <v>860</v>
       </c>
     </row>
@@ -16778,7 +16792,7 @@
       <c r="L397" s="4">
         <v>1</v>
       </c>
-      <c r="M397" s="5">
+      <c r="M397" s="6">
         <v>822</v>
       </c>
     </row>
@@ -16819,7 +16833,7 @@
       <c r="L398" s="4">
         <v>5</v>
       </c>
-      <c r="M398" s="5">
+      <c r="M398" s="6">
         <v>599</v>
       </c>
     </row>
@@ -16858,7 +16872,7 @@
       <c r="L399" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M399" s="5">
+      <c r="M399" s="6">
         <v>552</v>
       </c>
     </row>
@@ -16899,7 +16913,7 @@
       <c r="L400" s="4">
         <v>1</v>
       </c>
-      <c r="M400" s="5">
+      <c r="M400" s="6">
         <v>553</v>
       </c>
     </row>
@@ -16938,7 +16952,7 @@
       <c r="L401" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M401" s="5">
+      <c r="M401" s="6">
         <v>576</v>
       </c>
     </row>
@@ -16979,7 +16993,7 @@
       <c r="L402" s="4">
         <v>2</v>
       </c>
-      <c r="M402" s="5">
+      <c r="M402" s="6">
         <v>596</v>
       </c>
     </row>
@@ -17018,7 +17032,7 @@
       <c r="L403" s="4">
         <v>2</v>
       </c>
-      <c r="M403" s="5">
+      <c r="M403" s="6">
         <v>552</v>
       </c>
     </row>
@@ -17059,7 +17073,7 @@
       <c r="L404" s="4">
         <v>2</v>
       </c>
-      <c r="M404" s="5">
+      <c r="M404" s="6">
         <v>704</v>
       </c>
     </row>
@@ -17098,7 +17112,7 @@
       <c r="L405" s="4">
         <v>2</v>
       </c>
-      <c r="M405" s="5">
+      <c r="M405" s="6">
         <v>661</v>
       </c>
     </row>
@@ -17139,7 +17153,7 @@
       <c r="L406" s="4">
         <v>3</v>
       </c>
-      <c r="M406" s="5">
+      <c r="M406" s="6">
         <v>639</v>
       </c>
     </row>
@@ -17178,7 +17192,7 @@
       <c r="L407" s="4">
         <v>1</v>
       </c>
-      <c r="M407" s="5">
+      <c r="M407" s="6">
         <v>616</v>
       </c>
     </row>
@@ -17219,7 +17233,7 @@
       <c r="L408" s="4">
         <v>5</v>
       </c>
-      <c r="M408" s="5">
+      <c r="M408" s="6">
         <v>650</v>
       </c>
     </row>
@@ -17258,7 +17272,7 @@
       <c r="L409" s="4">
         <v>5</v>
       </c>
-      <c r="M409" s="5">
+      <c r="M409" s="6">
         <v>662</v>
       </c>
     </row>
@@ -17299,7 +17313,7 @@
       <c r="L410" s="4">
         <v>5</v>
       </c>
-      <c r="M410" s="5">
+      <c r="M410" s="6">
         <v>663</v>
       </c>
     </row>
@@ -17338,7 +17352,7 @@
       <c r="L411" s="4">
         <v>6</v>
       </c>
-      <c r="M411" s="5">
+      <c r="M411" s="6">
         <v>648</v>
       </c>
     </row>
@@ -17379,7 +17393,7 @@
       <c r="L412" s="4">
         <v>6</v>
       </c>
-      <c r="M412" s="5">
+      <c r="M412" s="6">
         <v>709</v>
       </c>
     </row>
@@ -17418,7 +17432,7 @@
       <c r="L413" s="4">
         <v>5</v>
       </c>
-      <c r="M413" s="5">
+      <c r="M413" s="6">
         <v>690</v>
       </c>
     </row>
@@ -17459,7 +17473,7 @@
       <c r="L414" s="4">
         <v>4</v>
       </c>
-      <c r="M414" s="5">
+      <c r="M414" s="6">
         <v>550</v>
       </c>
     </row>
@@ -17498,7 +17512,7 @@
       <c r="L415" s="4">
         <v>2</v>
       </c>
-      <c r="M415" s="5">
+      <c r="M415" s="6">
         <v>655</v>
       </c>
     </row>
@@ -17539,7 +17553,7 @@
       <c r="L416" s="4">
         <v>3</v>
       </c>
-      <c r="M416" s="5">
+      <c r="M416" s="6">
         <v>387</v>
       </c>
     </row>
@@ -17578,7 +17592,7 @@
       <c r="L417" s="4">
         <v>3</v>
       </c>
-      <c r="M417" s="5">
+      <c r="M417" s="6">
         <v>482</v>
       </c>
     </row>
@@ -17619,7 +17633,7 @@
       <c r="L418" s="4">
         <v>5</v>
       </c>
-      <c r="M418" s="5">
+      <c r="M418" s="6">
         <v>657</v>
       </c>
     </row>
@@ -17659,46 +17673,46 @@
         <v>7</v>
       </c>
       <c r="M419" s="5">
-        <v>1.0029999999999999</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B420" s="6"/>
-      <c r="C420" s="5">
+      <c r="B420" s="7"/>
+      <c r="C420" s="6">
         <v>152</v>
       </c>
-      <c r="D420" s="5">
+      <c r="D420" s="6">
         <v>724</v>
       </c>
       <c r="E420" s="5">
-        <v>5.3949999999999996</v>
+        <v>5395</v>
       </c>
       <c r="F420" s="5">
-        <v>1.3759999999999999</v>
+        <v>1376</v>
       </c>
       <c r="G420" s="5">
-        <v>2.3929999999999998</v>
+        <v>2393</v>
       </c>
       <c r="H420" s="5">
-        <v>3.452</v>
+        <v>3452</v>
       </c>
       <c r="I420" s="5">
-        <v>1.778</v>
-      </c>
-      <c r="J420" s="5">
+        <v>1778</v>
+      </c>
+      <c r="J420" s="6">
         <v>119</v>
       </c>
-      <c r="K420" s="5">
-        <v>14</v>
-      </c>
-      <c r="L420" s="5">
+      <c r="K420" s="6">
+        <v>14</v>
+      </c>
+      <c r="L420" s="6">
         <v>83</v>
       </c>
       <c r="M420" s="5">
-        <v>15.486000000000001</v>
+        <v>15486</v>
       </c>
     </row>
     <row r="421" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -17777,7 +17791,7 @@
       <c r="L422" s="4">
         <v>6</v>
       </c>
-      <c r="M422" s="5">
+      <c r="M422" s="6">
         <v>503</v>
       </c>
     </row>
@@ -17816,7 +17830,7 @@
       <c r="L423" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M423" s="5">
+      <c r="M423" s="6">
         <v>451</v>
       </c>
     </row>
@@ -17857,7 +17871,7 @@
       <c r="L424" s="4">
         <v>1</v>
       </c>
-      <c r="M424" s="5">
+      <c r="M424" s="6">
         <v>347</v>
       </c>
     </row>
@@ -17896,7 +17910,7 @@
       <c r="L425" s="4">
         <v>2</v>
       </c>
-      <c r="M425" s="5">
+      <c r="M425" s="6">
         <v>345</v>
       </c>
     </row>
@@ -17937,7 +17951,7 @@
       <c r="L426" s="4">
         <v>1</v>
       </c>
-      <c r="M426" s="5">
+      <c r="M426" s="6">
         <v>290</v>
       </c>
     </row>
@@ -17976,7 +17990,7 @@
       <c r="L427" s="4">
         <v>2</v>
       </c>
-      <c r="M427" s="5">
+      <c r="M427" s="6">
         <v>295</v>
       </c>
     </row>
@@ -18017,7 +18031,7 @@
       <c r="L428" s="4">
         <v>1</v>
       </c>
-      <c r="M428" s="5">
+      <c r="M428" s="6">
         <v>325</v>
       </c>
     </row>
@@ -18056,7 +18070,7 @@
       <c r="L429" s="4">
         <v>2</v>
       </c>
-      <c r="M429" s="5">
+      <c r="M429" s="6">
         <v>318</v>
       </c>
     </row>
@@ -18097,7 +18111,7 @@
       <c r="L430" s="4">
         <v>1</v>
       </c>
-      <c r="M430" s="5">
+      <c r="M430" s="6">
         <v>371</v>
       </c>
     </row>
@@ -18136,7 +18150,7 @@
       <c r="L431" s="4">
         <v>3</v>
       </c>
-      <c r="M431" s="5">
+      <c r="M431" s="6">
         <v>385</v>
       </c>
     </row>
@@ -18177,7 +18191,7 @@
       <c r="L432" s="4">
         <v>2</v>
       </c>
-      <c r="M432" s="5">
+      <c r="M432" s="6">
         <v>381</v>
       </c>
     </row>
@@ -18216,7 +18230,7 @@
       <c r="L433" s="4">
         <v>2</v>
       </c>
-      <c r="M433" s="5">
+      <c r="M433" s="6">
         <v>415</v>
       </c>
     </row>
@@ -18257,7 +18271,7 @@
       <c r="L434" s="4">
         <v>2</v>
       </c>
-      <c r="M434" s="5">
+      <c r="M434" s="6">
         <v>429</v>
       </c>
     </row>
@@ -18296,7 +18310,7 @@
       <c r="L435" s="4">
         <v>2</v>
       </c>
-      <c r="M435" s="5">
+      <c r="M435" s="6">
         <v>420</v>
       </c>
     </row>
@@ -18337,7 +18351,7 @@
       <c r="L436" s="4">
         <v>4</v>
       </c>
-      <c r="M436" s="5">
+      <c r="M436" s="6">
         <v>428</v>
       </c>
     </row>
@@ -18376,7 +18390,7 @@
       <c r="L437" s="4">
         <v>3</v>
       </c>
-      <c r="M437" s="5">
+      <c r="M437" s="6">
         <v>447</v>
       </c>
     </row>
@@ -18417,7 +18431,7 @@
       <c r="L438" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M438" s="5">
+      <c r="M438" s="6">
         <v>468</v>
       </c>
     </row>
@@ -18456,7 +18470,7 @@
       <c r="L439" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M439" s="5">
+      <c r="M439" s="6">
         <v>401</v>
       </c>
     </row>
@@ -18497,7 +18511,7 @@
       <c r="L440" s="4">
         <v>2</v>
       </c>
-      <c r="M440" s="5">
+      <c r="M440" s="6">
         <v>362</v>
       </c>
     </row>
@@ -18536,7 +18550,7 @@
       <c r="L441" s="4">
         <v>3</v>
       </c>
-      <c r="M441" s="5">
+      <c r="M441" s="6">
         <v>444</v>
       </c>
     </row>
@@ -18577,7 +18591,7 @@
       <c r="L442" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M442" s="5">
+      <c r="M442" s="6">
         <v>287</v>
       </c>
     </row>
@@ -18616,7 +18630,7 @@
       <c r="L443" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M443" s="5">
+      <c r="M443" s="6">
         <v>362</v>
       </c>
     </row>
@@ -18657,7 +18671,7 @@
       <c r="L444" s="4">
         <v>2</v>
       </c>
-      <c r="M444" s="5">
+      <c r="M444" s="6">
         <v>475</v>
       </c>
     </row>
@@ -18696,7 +18710,7 @@
       <c r="L445" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M445" s="5">
+      <c r="M445" s="6">
         <v>772</v>
       </c>
     </row>
@@ -18704,43 +18718,63 @@
       <c r="A446" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B446" s="6"/>
-      <c r="C446" s="5">
+      <c r="B446" s="7"/>
+      <c r="C446" s="6">
         <v>90</v>
       </c>
-      <c r="D446" s="5">
+      <c r="D446" s="6">
         <v>680</v>
       </c>
       <c r="E446" s="5">
-        <v>3.49</v>
-      </c>
-      <c r="F446" s="5">
+        <v>3490</v>
+      </c>
+      <c r="F446" s="6">
         <v>932</v>
       </c>
       <c r="G446" s="5">
-        <v>1.3560000000000001</v>
+        <v>1356</v>
       </c>
       <c r="H446" s="5">
-        <v>1.889</v>
+        <v>1889</v>
       </c>
       <c r="I446" s="5">
-        <v>1.145</v>
-      </c>
-      <c r="J446" s="5">
+        <v>1145</v>
+      </c>
+      <c r="J446" s="6">
         <v>91</v>
       </c>
-      <c r="K446" s="5">
+      <c r="K446" s="6">
         <v>7</v>
       </c>
-      <c r="L446" s="5">
+      <c r="L446" s="6">
         <v>41</v>
       </c>
       <c r="M446" s="5">
-        <v>9.7210000000000001</v>
+        <v>9721</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A447" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A448" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="A343:B343"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="A395:B395"/>
+    <mergeCell ref="A421:B421"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A239:B239"/>
     <mergeCell ref="A265:B265"/>
     <mergeCell ref="A291:B291"/>
     <mergeCell ref="A5:B5"/>
@@ -18749,16 +18783,6 @@
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A109:B109"/>
     <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A317:B317"/>
-    <mergeCell ref="A343:B343"/>
-    <mergeCell ref="A369:B369"/>
-    <mergeCell ref="A395:B395"/>
-    <mergeCell ref="A421:B421"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
